--- a/Data_file/Chart_Of_Account_kyld1.xlsx
+++ b/Data_file/Chart_Of_Account_kyld1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ball\Desktop\Template น้องมุก\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ball\Documents\Git_apcball\Project1\Data_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3215,7 +3215,7 @@
   <dimension ref="A1:E709"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3223,8 +3223,7 @@
     <col min="1" max="3" width="30.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="30.6640625" style="7" customWidth="1"/>
     <col min="5" max="5" width="30.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3251,9 +3250,7 @@
       <c r="B2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C2" s="4"/>
       <c r="D2" s="5">
         <v>100000</v>
       </c>
@@ -3268,9 +3265,7 @@
       <c r="B3" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C3" s="4"/>
       <c r="D3" s="5">
         <v>110000</v>
       </c>
@@ -3285,9 +3280,7 @@
       <c r="B4" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C4" s="4"/>
       <c r="D4" s="5">
         <v>111000</v>
       </c>
@@ -3302,9 +3295,7 @@
       <c r="B5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C5" s="4"/>
       <c r="D5" s="5">
         <v>111100</v>
       </c>
@@ -3319,9 +3310,7 @@
       <c r="B6" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C6" s="4"/>
       <c r="D6" s="5">
         <v>111100</v>
       </c>
@@ -3336,9 +3325,7 @@
       <c r="B7" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C7" s="4"/>
       <c r="D7" s="5">
         <v>111100</v>
       </c>
@@ -3353,9 +3340,7 @@
       <c r="B8" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C8" s="4"/>
       <c r="D8" s="5">
         <v>111100</v>
       </c>
@@ -3370,9 +3355,7 @@
       <c r="B9" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C9" s="4"/>
       <c r="D9" s="5">
         <v>111100</v>
       </c>
@@ -3387,9 +3370,7 @@
       <c r="B10" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C10" s="4"/>
       <c r="D10" s="5">
         <v>111000</v>
       </c>
@@ -3404,9 +3385,7 @@
       <c r="B11" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C11" s="4"/>
       <c r="D11" s="5">
         <v>111200</v>
       </c>
@@ -3421,9 +3400,7 @@
       <c r="B12" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C12" s="4"/>
       <c r="D12" s="5">
         <v>111200</v>
       </c>
@@ -3438,9 +3415,7 @@
       <c r="B13" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C13" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C13" s="4"/>
       <c r="D13" s="5">
         <v>111200</v>
       </c>
@@ -3455,9 +3430,7 @@
       <c r="B14" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C14" s="4"/>
       <c r="D14" s="5">
         <v>111200</v>
       </c>
@@ -3472,9 +3445,7 @@
       <c r="B15" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C15" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C15" s="4"/>
       <c r="D15" s="5">
         <v>111200</v>
       </c>
@@ -3489,9 +3460,7 @@
       <c r="B16" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C16" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C16" s="4"/>
       <c r="D16" s="5">
         <v>111300</v>
       </c>
@@ -3506,9 +3475,7 @@
       <c r="B17" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C17" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C17" s="4"/>
       <c r="D17" s="5">
         <v>111300</v>
       </c>
@@ -3523,9 +3490,7 @@
       <c r="B18" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C18" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C18" s="4"/>
       <c r="D18" s="5">
         <v>111300</v>
       </c>
@@ -3540,9 +3505,7 @@
       <c r="B19" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C19" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C19" s="4"/>
       <c r="D19" s="5">
         <v>111300</v>
       </c>
@@ -3557,9 +3520,7 @@
       <c r="B20" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C20" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C20" s="4"/>
       <c r="D20" s="5">
         <v>111300</v>
       </c>
@@ -3574,9 +3535,7 @@
       <c r="B21" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C21" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C21" s="4"/>
       <c r="D21" s="5">
         <v>111300</v>
       </c>
@@ -3591,9 +3550,7 @@
       <c r="B22" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C22" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C22" s="4"/>
       <c r="D22" s="5">
         <v>111300</v>
       </c>
@@ -3608,9 +3565,7 @@
       <c r="B23" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C23" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C23" s="4"/>
       <c r="D23" s="5">
         <v>111300</v>
       </c>
@@ -3625,9 +3580,7 @@
       <c r="B24" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C24" s="4"/>
       <c r="D24" s="5">
         <v>111000</v>
       </c>
@@ -3642,9 +3595,7 @@
       <c r="B25" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C25" s="4"/>
       <c r="D25" s="5">
         <v>111400</v>
       </c>
@@ -3659,9 +3610,7 @@
       <c r="B26" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C26" s="4"/>
       <c r="D26" s="5">
         <v>111400</v>
       </c>
@@ -3676,9 +3625,7 @@
       <c r="B27" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C27" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C27" s="4"/>
       <c r="D27" s="5">
         <v>111400</v>
       </c>
@@ -3693,9 +3640,7 @@
       <c r="B28" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C28" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C28" s="4"/>
       <c r="D28" s="5">
         <v>111400</v>
       </c>
@@ -3710,9 +3655,7 @@
       <c r="B29" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C29" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C29" s="4"/>
       <c r="D29" s="5">
         <v>111400</v>
       </c>
@@ -3727,9 +3670,7 @@
       <c r="B30" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C30" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C30" s="4"/>
       <c r="D30" s="5">
         <v>111400</v>
       </c>
@@ -3744,9 +3685,7 @@
       <c r="B31" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C31" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C31" s="4"/>
       <c r="D31" s="5">
         <v>111400</v>
       </c>
@@ -3761,9 +3700,7 @@
       <c r="B32" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C32" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C32" s="4"/>
       <c r="D32" s="5">
         <v>111400</v>
       </c>
@@ -3778,9 +3715,7 @@
       <c r="B33" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="C33" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C33" s="4"/>
       <c r="D33" s="5">
         <v>111400</v>
       </c>
@@ -3795,9 +3730,7 @@
       <c r="B34" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C34" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C34" s="4"/>
       <c r="D34" s="5">
         <v>111400</v>
       </c>
@@ -3812,9 +3745,7 @@
       <c r="B35" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C35" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C35" s="4"/>
       <c r="D35" s="5">
         <v>111400</v>
       </c>
@@ -3829,9 +3760,7 @@
       <c r="B36" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C36" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C36" s="4"/>
       <c r="D36" s="5">
         <v>111400</v>
       </c>
@@ -3846,9 +3775,7 @@
       <c r="B37" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C37" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C37" s="4"/>
       <c r="D37" s="5">
         <v>110000</v>
       </c>
@@ -3863,9 +3790,7 @@
       <c r="B38" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C38" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C38" s="4"/>
       <c r="D38" s="5">
         <v>112000</v>
       </c>
@@ -3880,9 +3805,7 @@
       <c r="B39" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C39" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C39" s="4"/>
       <c r="D39" s="5">
         <v>110000</v>
       </c>
@@ -3897,9 +3820,7 @@
       <c r="B40" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C40" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C40" s="4"/>
       <c r="D40" s="5">
         <v>113000</v>
       </c>
@@ -3914,9 +3835,7 @@
       <c r="B41" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C41" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C41" s="4"/>
       <c r="D41" s="5">
         <v>113100</v>
       </c>
@@ -3931,9 +3850,7 @@
       <c r="B42" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="C42" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C42" s="4"/>
       <c r="D42" s="5">
         <v>113100</v>
       </c>
@@ -3948,9 +3865,7 @@
       <c r="B43" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="C43" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C43" s="4"/>
       <c r="D43" s="5">
         <v>113100</v>
       </c>
@@ -3965,9 +3880,7 @@
       <c r="B44" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C44" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C44" s="4"/>
       <c r="D44" s="5">
         <v>113100</v>
       </c>
@@ -3982,9 +3895,7 @@
       <c r="B45" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="C45" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C45" s="4"/>
       <c r="D45" s="5">
         <v>113100</v>
       </c>
@@ -3999,9 +3910,7 @@
       <c r="B46" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="C46" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C46" s="4"/>
       <c r="D46" s="5">
         <v>113100</v>
       </c>
@@ -4016,9 +3925,7 @@
       <c r="B47" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="C47" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C47" s="4"/>
       <c r="D47" s="5">
         <v>113100</v>
       </c>
@@ -4033,9 +3940,7 @@
       <c r="B48" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="C48" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C48" s="4"/>
       <c r="D48" s="5">
         <v>113100</v>
       </c>
@@ -4050,9 +3955,7 @@
       <c r="B49" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C49" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C49" s="4"/>
       <c r="D49" s="5">
         <v>113100</v>
       </c>
@@ -4065,9 +3968,7 @@
       <c r="B50" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="C50" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C50" s="4"/>
       <c r="D50" s="5">
         <v>113000</v>
       </c>
@@ -4082,9 +3983,7 @@
       <c r="B51" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="C51" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C51" s="4"/>
       <c r="D51" s="5">
         <v>113200</v>
       </c>
@@ -4099,9 +3998,7 @@
       <c r="B52" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C52" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C52" s="4"/>
       <c r="D52" s="5">
         <v>113200</v>
       </c>
@@ -4116,9 +4013,7 @@
       <c r="B53" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="C53" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C53" s="4"/>
       <c r="D53" s="5">
         <v>113200</v>
       </c>
@@ -4133,9 +4028,7 @@
       <c r="B54" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C54" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C54" s="4"/>
       <c r="D54" s="5">
         <v>113000</v>
       </c>
@@ -4150,9 +4043,7 @@
       <c r="B55" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C55" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C55" s="4"/>
       <c r="D55" s="5">
         <v>113300</v>
       </c>
@@ -4167,9 +4058,7 @@
       <c r="B56" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C56" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C56" s="4"/>
       <c r="D56" s="5">
         <v>113300</v>
       </c>
@@ -4184,9 +4073,7 @@
       <c r="B57" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C57" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C57" s="4"/>
       <c r="D57" s="5">
         <v>113300</v>
       </c>
@@ -4201,9 +4088,7 @@
       <c r="B58" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C58" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C58" s="4"/>
       <c r="D58" s="5">
         <v>113300</v>
       </c>
@@ -4218,9 +4103,7 @@
       <c r="B59" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C59" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C59" s="4"/>
       <c r="D59" s="5">
         <v>110000</v>
       </c>
@@ -4235,9 +4118,7 @@
       <c r="B60" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="C60" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C60" s="4"/>
       <c r="D60" s="5">
         <v>114000</v>
       </c>
@@ -4252,9 +4133,7 @@
       <c r="B61" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="C61" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C61" s="4"/>
       <c r="D61" s="5">
         <v>114000</v>
       </c>
@@ -4269,9 +4148,7 @@
       <c r="B62" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="C62" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C62" s="4"/>
       <c r="D62" s="5">
         <v>114000</v>
       </c>
@@ -4286,9 +4163,7 @@
       <c r="B63" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="C63" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C63" s="4"/>
       <c r="D63" s="5">
         <v>114000</v>
       </c>
@@ -4303,9 +4178,7 @@
       <c r="B64" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C64" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C64" s="4"/>
       <c r="D64" s="5">
         <v>114000</v>
       </c>
@@ -4320,9 +4193,7 @@
       <c r="B65" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C65" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C65" s="4"/>
       <c r="D65" s="5">
         <v>114000</v>
       </c>
@@ -4337,9 +4208,7 @@
       <c r="B66" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="C66" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C66" s="4"/>
       <c r="D66" s="5">
         <v>114000</v>
       </c>
@@ -4354,9 +4223,7 @@
       <c r="B67" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="C67" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C67" s="4"/>
       <c r="D67" s="5">
         <v>114000</v>
       </c>
@@ -4371,9 +4238,7 @@
       <c r="B68" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="C68" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C68" s="4"/>
       <c r="D68" s="5">
         <v>114000</v>
       </c>
@@ -4388,9 +4253,7 @@
       <c r="B69" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="C69" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C69" s="4"/>
       <c r="D69" s="5">
         <v>114000</v>
       </c>
@@ -4405,9 +4268,7 @@
       <c r="B70" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="C70" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C70" s="4"/>
       <c r="D70" s="5">
         <v>114000</v>
       </c>
@@ -4422,9 +4283,7 @@
       <c r="B71" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C71" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C71" s="4"/>
       <c r="D71" s="5">
         <v>114000</v>
       </c>
@@ -4439,9 +4298,7 @@
       <c r="B72" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C72" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C72" s="4"/>
       <c r="D72" s="5">
         <v>114000</v>
       </c>
@@ -4456,9 +4313,7 @@
       <c r="B73" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C73" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C73" s="4"/>
       <c r="D73" s="5">
         <v>114000</v>
       </c>
@@ -4473,9 +4328,7 @@
       <c r="B74" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="C74" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C74" s="4"/>
       <c r="D74" s="5">
         <v>114000</v>
       </c>
@@ -4490,9 +4343,7 @@
       <c r="B75" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="C75" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C75" s="4"/>
       <c r="D75" s="5">
         <v>114000</v>
       </c>
@@ -4507,9 +4358,7 @@
       <c r="B76" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C76" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C76" s="4"/>
       <c r="D76" s="5">
         <v>114000</v>
       </c>
@@ -4524,9 +4373,7 @@
       <c r="B77" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="C77" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C77" s="4"/>
       <c r="D77" s="5">
         <v>114000</v>
       </c>
@@ -4541,9 +4388,7 @@
       <c r="B78" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C78" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C78" s="4"/>
       <c r="D78" s="5">
         <v>114000</v>
       </c>
@@ -4558,9 +4403,7 @@
       <c r="B79" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="C79" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C79" s="4"/>
       <c r="D79" s="5">
         <v>114000</v>
       </c>
@@ -4575,9 +4418,7 @@
       <c r="B80" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="C80" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C80" s="4"/>
       <c r="D80" s="5">
         <v>114000</v>
       </c>
@@ -4592,9 +4433,7 @@
       <c r="B81" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C81" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C81" s="4"/>
       <c r="D81" s="5">
         <v>114000</v>
       </c>
@@ -4609,9 +4448,7 @@
       <c r="B82" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="C82" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C82" s="4"/>
       <c r="D82" s="5">
         <v>114000</v>
       </c>
@@ -4626,9 +4463,7 @@
       <c r="B83" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="C83" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C83" s="4"/>
       <c r="D83" s="5">
         <v>114000</v>
       </c>
@@ -4643,9 +4478,7 @@
       <c r="B84" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="C84" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C84" s="4"/>
       <c r="D84" s="5">
         <v>114000</v>
       </c>
@@ -4660,9 +4493,7 @@
       <c r="B85" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C85" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C85" s="4"/>
       <c r="D85" s="5">
         <v>114000</v>
       </c>
@@ -4677,9 +4508,7 @@
       <c r="B86" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="C86" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C86" s="4"/>
       <c r="D86" s="5">
         <v>114000</v>
       </c>
@@ -4694,9 +4523,7 @@
       <c r="B87" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="C87" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C87" s="4"/>
       <c r="D87" s="5">
         <v>114000</v>
       </c>
@@ -4711,9 +4538,7 @@
       <c r="B88" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="C88" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C88" s="4"/>
       <c r="D88" s="5">
         <v>114000</v>
       </c>
@@ -4728,9 +4553,7 @@
       <c r="B89" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="C89" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C89" s="4"/>
       <c r="D89" s="5">
         <v>114000</v>
       </c>
@@ -4745,9 +4568,7 @@
       <c r="B90" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="C90" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C90" s="4"/>
       <c r="D90" s="5">
         <v>114000</v>
       </c>
@@ -4762,9 +4583,7 @@
       <c r="B91" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="C91" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C91" s="4"/>
       <c r="D91" s="5">
         <v>114000</v>
       </c>
@@ -4779,9 +4598,7 @@
       <c r="B92" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="C92" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C92" s="4"/>
       <c r="D92" s="5">
         <v>114000</v>
       </c>
@@ -4796,9 +4613,7 @@
       <c r="B93" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="C93" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C93" s="4"/>
       <c r="D93" s="5">
         <v>114000</v>
       </c>
@@ -4813,9 +4628,7 @@
       <c r="B94" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="C94" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C94" s="4"/>
       <c r="D94" s="5">
         <v>110000</v>
       </c>
@@ -4828,9 +4641,7 @@
       <c r="B95" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C95" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C95" s="4"/>
       <c r="D95" s="5">
         <v>115000</v>
       </c>
@@ -4845,9 +4656,7 @@
       <c r="B96" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="C96" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C96" s="4"/>
       <c r="D96" s="5">
         <v>115100</v>
       </c>
@@ -4860,9 +4669,7 @@
       <c r="B97" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C97" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C97" s="4"/>
       <c r="D97" s="5">
         <v>115000</v>
       </c>
@@ -4877,9 +4684,7 @@
       <c r="B98" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C98" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C98" s="4"/>
       <c r="D98" s="5">
         <v>115200</v>
       </c>
@@ -4892,9 +4697,7 @@
       <c r="B99" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="C99" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C99" s="4"/>
       <c r="D99" s="5">
         <v>115200</v>
       </c>
@@ -4907,9 +4710,7 @@
       <c r="B100" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="C100" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C100" s="4"/>
       <c r="D100" s="5">
         <v>115200</v>
       </c>
@@ -4922,9 +4723,7 @@
       <c r="B101" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="C101" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C101" s="4"/>
       <c r="D101" s="5">
         <v>115200</v>
       </c>
@@ -4939,9 +4738,7 @@
       <c r="B102" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="C102" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C102" s="4"/>
       <c r="D102" s="5">
         <v>115200</v>
       </c>
@@ -4956,9 +4753,7 @@
       <c r="B103" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="C103" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C103" s="4"/>
       <c r="D103" s="5">
         <v>110000</v>
       </c>
@@ -4971,9 +4766,7 @@
       <c r="B104" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C104" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C104" s="4"/>
       <c r="D104" s="5">
         <v>110000</v>
       </c>
@@ -4986,9 +4779,7 @@
       <c r="B105" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="C105" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C105" s="4"/>
       <c r="D105" s="5">
         <v>117000</v>
       </c>
@@ -5001,9 +4792,7 @@
       <c r="B106" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C106" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C106" s="4"/>
       <c r="D106" s="5">
         <v>117100</v>
       </c>
@@ -5018,9 +4807,7 @@
       <c r="B107" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="C107" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C107" s="4"/>
       <c r="D107" s="5">
         <v>117100</v>
       </c>
@@ -5035,9 +4822,7 @@
       <c r="B108" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="C108" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C108" s="4"/>
       <c r="D108" s="5">
         <v>117100</v>
       </c>
@@ -5052,9 +4837,7 @@
       <c r="B109" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="C109" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C109" s="4"/>
       <c r="D109" s="5">
         <v>117100</v>
       </c>
@@ -5069,9 +4852,7 @@
       <c r="B110" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="C110" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C110" s="4"/>
       <c r="D110" s="5">
         <v>117100</v>
       </c>
@@ -5086,9 +4867,7 @@
       <c r="B111" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="C111" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C111" s="4"/>
       <c r="D111" s="5">
         <v>117100</v>
       </c>
@@ -5103,9 +4882,7 @@
       <c r="B112" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C112" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C112" s="4"/>
       <c r="D112" s="5">
         <v>117100</v>
       </c>
@@ -5120,9 +4897,7 @@
       <c r="B113" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C113" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C113" s="4"/>
       <c r="D113" s="5">
         <v>117100</v>
       </c>
@@ -5137,9 +4912,7 @@
       <c r="B114" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C114" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C114" s="4"/>
       <c r="D114" s="5">
         <v>117100</v>
       </c>
@@ -5154,9 +4927,7 @@
       <c r="B115" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C115" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C115" s="4"/>
       <c r="D115" s="5">
         <v>117100</v>
       </c>
@@ -5171,9 +4942,7 @@
       <c r="B116" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="C116" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C116" s="4"/>
       <c r="D116" s="5">
         <v>117100</v>
       </c>
@@ -5188,9 +4957,7 @@
       <c r="B117" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="C117" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C117" s="4"/>
       <c r="D117" s="5">
         <v>117100</v>
       </c>
@@ -5205,9 +4972,7 @@
       <c r="B118" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="C118" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C118" s="4"/>
       <c r="D118" s="5">
         <v>117100</v>
       </c>
@@ -5222,9 +4987,7 @@
       <c r="B119" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="C119" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C119" s="4"/>
       <c r="D119" s="5">
         <v>117100</v>
       </c>
@@ -5239,9 +5002,7 @@
       <c r="B120" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C120" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C120" s="4"/>
       <c r="D120" s="5">
         <v>117100</v>
       </c>
@@ -5256,9 +5017,7 @@
       <c r="B121" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="C121" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C121" s="4"/>
       <c r="D121" s="5">
         <v>117100</v>
       </c>
@@ -5273,9 +5032,7 @@
       <c r="B122" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C122" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C122" s="4"/>
       <c r="D122" s="5">
         <v>117000</v>
       </c>
@@ -5290,9 +5047,7 @@
       <c r="B123" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="C123" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C123" s="4"/>
       <c r="D123" s="5">
         <v>117200</v>
       </c>
@@ -5307,9 +5062,7 @@
       <c r="B124" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="C124" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C124" s="4"/>
       <c r="D124" s="5">
         <v>117200</v>
       </c>
@@ -5324,9 +5077,7 @@
       <c r="B125" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="C125" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C125" s="4"/>
       <c r="D125" s="5">
         <v>117200</v>
       </c>
@@ -5341,9 +5092,7 @@
       <c r="B126" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="C126" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C126" s="4"/>
       <c r="D126" s="5">
         <v>117200</v>
       </c>
@@ -5358,9 +5107,7 @@
       <c r="B127" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C127" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C127" s="4"/>
       <c r="D127" s="5">
         <v>117000</v>
       </c>
@@ -5375,9 +5122,7 @@
       <c r="B128" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="C128" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C128" s="4"/>
       <c r="D128" s="5">
         <v>117300</v>
       </c>
@@ -5392,9 +5137,7 @@
       <c r="B129" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="C129" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C129" s="4"/>
       <c r="D129" s="5">
         <v>117300</v>
       </c>
@@ -5409,9 +5152,7 @@
       <c r="B130" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="C130" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C130" s="4"/>
       <c r="D130" s="5">
         <v>117300</v>
       </c>
@@ -5426,9 +5167,7 @@
       <c r="B131" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="C131" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C131" s="4"/>
       <c r="D131" s="5">
         <v>117300</v>
       </c>
@@ -5443,9 +5182,7 @@
       <c r="B132" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="C132" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C132" s="4"/>
       <c r="D132" s="5">
         <v>117300</v>
       </c>
@@ -5460,9 +5197,7 @@
       <c r="B133" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="C133" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C133" s="4"/>
       <c r="D133" s="5">
         <v>117300</v>
       </c>
@@ -5477,9 +5212,7 @@
       <c r="B134" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="C134" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C134" s="4"/>
       <c r="D134" s="5">
         <v>117300</v>
       </c>
@@ -5494,9 +5227,7 @@
       <c r="B135" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="C135" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C135" s="4"/>
       <c r="D135" s="5">
         <v>117300</v>
       </c>
@@ -5511,9 +5242,7 @@
       <c r="B136" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="C136" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C136" s="4"/>
       <c r="D136" s="5">
         <v>117300</v>
       </c>
@@ -5528,9 +5257,7 @@
       <c r="B137" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C137" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C137" s="4"/>
       <c r="D137" s="5">
         <v>117300</v>
       </c>
@@ -5545,9 +5272,7 @@
       <c r="B138" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="C138" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C138" s="4"/>
       <c r="D138" s="5">
         <v>117300</v>
       </c>
@@ -5562,9 +5287,7 @@
       <c r="B139" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="C139" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C139" s="4"/>
       <c r="D139" s="5">
         <v>117300</v>
       </c>
@@ -5579,9 +5302,7 @@
       <c r="B140" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="C140" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C140" s="4"/>
       <c r="D140" s="5">
         <v>117300</v>
       </c>
@@ -5596,9 +5317,7 @@
       <c r="B141" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="C141" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C141" s="4"/>
       <c r="D141" s="5">
         <v>117300</v>
       </c>
@@ -5613,9 +5332,7 @@
       <c r="B142" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C142" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C142" s="4"/>
       <c r="D142" s="5">
         <v>100000</v>
       </c>
@@ -5630,9 +5347,7 @@
       <c r="B143" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="C143" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C143" s="4"/>
       <c r="D143" s="5">
         <v>120000</v>
       </c>
@@ -5647,9 +5362,7 @@
       <c r="B144" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="C144" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C144" s="4"/>
       <c r="D144" s="5">
         <v>120000</v>
       </c>
@@ -5662,9 +5375,7 @@
       <c r="B145" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="C145" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C145" s="4"/>
       <c r="D145" s="5">
         <v>120000</v>
       </c>
@@ -5677,9 +5388,7 @@
       <c r="B146" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="C146" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C146" s="4"/>
       <c r="D146" s="5">
         <v>120000</v>
       </c>
@@ -5694,9 +5403,7 @@
       <c r="B147" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="C147" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C147" s="4"/>
       <c r="D147" s="5">
         <v>120000</v>
       </c>
@@ -5709,9 +5416,7 @@
       <c r="B148" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="C148" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C148" s="4"/>
       <c r="D148" s="5">
         <v>125000</v>
       </c>
@@ -5726,9 +5431,7 @@
       <c r="B149" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C149" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C149" s="4"/>
       <c r="D149" s="5">
         <v>125100</v>
       </c>
@@ -5743,9 +5446,7 @@
       <c r="B150" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="C150" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C150" s="4"/>
       <c r="D150" s="5">
         <v>125100</v>
       </c>
@@ -5760,9 +5461,7 @@
       <c r="B151" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="C151" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C151" s="4"/>
       <c r="D151" s="5">
         <v>125100</v>
       </c>
@@ -5777,9 +5476,7 @@
       <c r="B152" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C152" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C152" s="4"/>
       <c r="D152" s="5">
         <v>125100</v>
       </c>
@@ -5794,9 +5491,7 @@
       <c r="B153" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="C153" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C153" s="4"/>
       <c r="D153" s="5">
         <v>125100</v>
       </c>
@@ -5811,9 +5506,7 @@
       <c r="B154" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="C154" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C154" s="4"/>
       <c r="D154" s="5">
         <v>125100</v>
       </c>
@@ -5826,9 +5519,7 @@
       <c r="B155" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="C155" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C155" s="4"/>
       <c r="D155" s="5">
         <v>125100</v>
       </c>
@@ -5841,9 +5532,7 @@
       <c r="B156" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="C156" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C156" s="4"/>
       <c r="D156" s="5">
         <v>125100</v>
       </c>
@@ -5856,9 +5545,7 @@
       <c r="B157" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C157" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C157" s="4"/>
       <c r="D157" s="5">
         <v>125100</v>
       </c>
@@ -5873,9 +5560,7 @@
       <c r="B158" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="C158" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C158" s="4"/>
       <c r="D158" s="5">
         <v>125100</v>
       </c>
@@ -5890,9 +5575,7 @@
       <c r="B159" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="C159" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C159" s="4"/>
       <c r="D159" s="5">
         <v>125100</v>
       </c>
@@ -5907,9 +5590,7 @@
       <c r="B160" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="C160" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C160" s="4"/>
       <c r="D160" s="5">
         <v>125100</v>
       </c>
@@ -5924,9 +5605,7 @@
       <c r="B161" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="C161" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C161" s="4"/>
       <c r="D161" s="5">
         <v>125100</v>
       </c>
@@ -5941,9 +5620,7 @@
       <c r="B162" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="C162" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C162" s="4"/>
       <c r="D162" s="5">
         <v>125100</v>
       </c>
@@ -5958,9 +5635,7 @@
       <c r="B163" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="C163" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C163" s="4"/>
       <c r="D163" s="5">
         <v>125100</v>
       </c>
@@ -5975,9 +5650,7 @@
       <c r="B164" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C164" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C164" s="4"/>
       <c r="D164" s="5">
         <v>125100</v>
       </c>
@@ -5992,9 +5665,7 @@
       <c r="B165" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="C165" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C165" s="4"/>
       <c r="D165" s="5">
         <v>125100</v>
       </c>
@@ -6009,9 +5680,7 @@
       <c r="B166" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="C166" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C166" s="4"/>
       <c r="D166" s="5">
         <v>125100</v>
       </c>
@@ -6026,9 +5695,7 @@
       <c r="B167" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="C167" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C167" s="4"/>
       <c r="D167" s="5">
         <v>125100</v>
       </c>
@@ -6043,9 +5710,7 @@
       <c r="B168" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C168" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C168" s="4"/>
       <c r="D168" s="5">
         <v>125000</v>
       </c>
@@ -6060,9 +5725,7 @@
       <c r="B169" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="C169" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C169" s="4"/>
       <c r="D169" s="5">
         <v>125200</v>
       </c>
@@ -6077,9 +5740,7 @@
       <c r="B170" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="C170" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C170" s="4"/>
       <c r="D170" s="5">
         <v>125200</v>
       </c>
@@ -6094,9 +5755,7 @@
       <c r="B171" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C171" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C171" s="4"/>
       <c r="D171" s="5">
         <v>125200</v>
       </c>
@@ -6111,9 +5770,7 @@
       <c r="B172" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="C172" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C172" s="4"/>
       <c r="D172" s="5">
         <v>125200</v>
       </c>
@@ -6128,9 +5785,7 @@
       <c r="B173" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="C173" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C173" s="4"/>
       <c r="D173" s="5">
         <v>125200</v>
       </c>
@@ -6145,9 +5800,7 @@
       <c r="B174" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="C174" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C174" s="4"/>
       <c r="D174" s="5">
         <v>125200</v>
       </c>
@@ -6162,9 +5815,7 @@
       <c r="B175" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="C175" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C175" s="4"/>
       <c r="D175" s="5">
         <v>125200</v>
       </c>
@@ -6179,9 +5830,7 @@
       <c r="B176" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="C176" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C176" s="4"/>
       <c r="D176" s="5">
         <v>125200</v>
       </c>
@@ -6196,9 +5845,7 @@
       <c r="B177" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="C177" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C177" s="4"/>
       <c r="D177" s="5">
         <v>125200</v>
       </c>
@@ -6213,9 +5860,7 @@
       <c r="B178" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="C178" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C178" s="4"/>
       <c r="D178" s="5">
         <v>125200</v>
       </c>
@@ -6228,9 +5873,7 @@
       <c r="B179" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="C179" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C179" s="4"/>
       <c r="D179" s="5">
         <v>125200</v>
       </c>
@@ -6245,9 +5888,7 @@
       <c r="B180" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="C180" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C180" s="4"/>
       <c r="D180" s="5">
         <v>125200</v>
       </c>
@@ -6262,9 +5903,7 @@
       <c r="B181" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="C181" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C181" s="4"/>
       <c r="D181" s="5">
         <v>125200</v>
       </c>
@@ -6279,9 +5918,7 @@
       <c r="B182" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="C182" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C182" s="4"/>
       <c r="D182" s="5">
         <v>120000</v>
       </c>
@@ -6296,9 +5933,7 @@
       <c r="B183" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="C183" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C183" s="4"/>
       <c r="D183" s="5">
         <v>120000</v>
       </c>
@@ -6313,9 +5948,7 @@
       <c r="B184" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C184" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C184" s="4"/>
       <c r="D184" s="5">
         <v>127000</v>
       </c>
@@ -6330,9 +5963,7 @@
       <c r="B185" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="C185" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C185" s="4"/>
       <c r="D185" s="5">
         <v>127100</v>
       </c>
@@ -6347,9 +5978,7 @@
       <c r="B186" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="C186" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C186" s="4"/>
       <c r="D186" s="5">
         <v>127100</v>
       </c>
@@ -6364,9 +5993,7 @@
       <c r="B187" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="C187" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C187" s="4"/>
       <c r="D187" s="5">
         <v>127100</v>
       </c>
@@ -6381,9 +6008,7 @@
       <c r="B188" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="C188" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C188" s="4"/>
       <c r="D188" s="5">
         <v>127100</v>
       </c>
@@ -6398,9 +6023,7 @@
       <c r="B189" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="C189" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C189" s="4"/>
       <c r="D189" s="5">
         <v>127100</v>
       </c>
@@ -6415,9 +6038,7 @@
       <c r="B190" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C190" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C190" s="4"/>
       <c r="D190" s="5">
         <v>127100</v>
       </c>
@@ -6432,9 +6053,7 @@
       <c r="B191" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C191" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C191" s="4"/>
       <c r="D191" s="5">
         <v>127100</v>
       </c>
@@ -6449,9 +6068,7 @@
       <c r="B192" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="C192" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C192" s="4"/>
       <c r="D192" s="5">
         <v>128200</v>
       </c>
@@ -6466,9 +6083,7 @@
       <c r="B193" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C193" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C193" s="4"/>
       <c r="D193" s="5">
         <v>200000</v>
       </c>
@@ -6483,9 +6098,7 @@
       <c r="B194" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="C194" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C194" s="4"/>
       <c r="D194" s="5">
         <v>210000</v>
       </c>
@@ -6500,9 +6113,7 @@
       <c r="B195" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="C195" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C195" s="4"/>
       <c r="D195" s="5">
         <v>211000</v>
       </c>
@@ -6517,9 +6128,7 @@
       <c r="B196" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="C196" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C196" s="4"/>
       <c r="D196" s="5">
         <v>211100</v>
       </c>
@@ -6534,9 +6143,7 @@
       <c r="B197" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C197" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C197" s="4"/>
       <c r="D197" s="5">
         <v>211000</v>
       </c>
@@ -6551,9 +6158,7 @@
       <c r="B198" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C198" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C198" s="4"/>
       <c r="D198" s="5">
         <v>211000</v>
       </c>
@@ -6568,9 +6173,7 @@
       <c r="B199" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="C199" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C199" s="4"/>
       <c r="D199" s="5">
         <v>212000</v>
       </c>
@@ -6585,9 +6188,7 @@
       <c r="B200" s="9" t="s">
         <v>250</v>
       </c>
-      <c r="C200" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C200" s="4"/>
       <c r="D200" s="5">
         <v>212100</v>
       </c>
@@ -6602,9 +6203,7 @@
       <c r="B201" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="C201" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C201" s="4"/>
       <c r="D201" s="5">
         <v>212100</v>
       </c>
@@ -6619,9 +6218,7 @@
       <c r="B202" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="C202" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C202" s="4"/>
       <c r="D202" s="5">
         <v>212100</v>
       </c>
@@ -6636,9 +6233,7 @@
       <c r="B203" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="C203" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C203" s="4"/>
       <c r="D203" s="5">
         <v>212100</v>
       </c>
@@ -6651,9 +6246,7 @@
       <c r="B204" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="C204" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C204" s="4"/>
       <c r="D204" s="5">
         <v>212100</v>
       </c>
@@ -6666,9 +6259,7 @@
       <c r="B205" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="C205" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C205" s="4"/>
       <c r="D205" s="5">
         <v>212100</v>
       </c>
@@ -6681,9 +6272,7 @@
       <c r="B206" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="C206" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C206" s="4"/>
       <c r="D206" s="5">
         <v>212100</v>
       </c>
@@ -6698,9 +6287,7 @@
       <c r="B207" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="C207" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C207" s="4"/>
       <c r="D207" s="5">
         <v>212100</v>
       </c>
@@ -6715,9 +6302,7 @@
       <c r="B208" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="C208" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C208" s="4"/>
       <c r="D208" s="5">
         <v>212100</v>
       </c>
@@ -6732,9 +6317,7 @@
       <c r="B209" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="C209" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C209" s="4"/>
       <c r="D209" s="5">
         <v>212100</v>
       </c>
@@ -6749,9 +6332,7 @@
       <c r="B210" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="C210" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C210" s="4"/>
       <c r="D210" s="5">
         <v>212100</v>
       </c>
@@ -6766,9 +6347,7 @@
       <c r="B211" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="C211" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C211" s="4"/>
       <c r="D211" s="5">
         <v>212100</v>
       </c>
@@ -6783,9 +6362,7 @@
       <c r="B212" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="C212" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C212" s="4"/>
       <c r="D212" s="5">
         <v>212100</v>
       </c>
@@ -6800,9 +6377,7 @@
       <c r="B213" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="C213" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C213" s="4"/>
       <c r="D213" s="5">
         <v>212100</v>
       </c>
@@ -6817,9 +6392,7 @@
       <c r="B214" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="C214" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C214" s="4"/>
       <c r="D214" s="5">
         <v>212100</v>
       </c>
@@ -6834,9 +6407,7 @@
       <c r="B215" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="C215" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C215" s="4"/>
       <c r="D215" s="5">
         <v>212100</v>
       </c>
@@ -6851,9 +6422,7 @@
       <c r="B216" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="C216" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C216" s="4"/>
       <c r="D216" s="5">
         <v>212100</v>
       </c>
@@ -6868,9 +6437,7 @@
       <c r="B217" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C217" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C217" s="4"/>
       <c r="D217" s="5">
         <v>212000</v>
       </c>
@@ -6885,9 +6452,7 @@
       <c r="B218" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="C218" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C218" s="4"/>
       <c r="D218" s="5">
         <v>212200</v>
       </c>
@@ -6902,9 +6467,7 @@
       <c r="B219" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="C219" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C219" s="4"/>
       <c r="D219" s="5">
         <v>212200</v>
       </c>
@@ -6919,9 +6482,7 @@
       <c r="B220" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="C220" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C220" s="4"/>
       <c r="D220" s="5">
         <v>210000</v>
       </c>
@@ -6936,9 +6497,7 @@
       <c r="B221" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="C221" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C221" s="4"/>
       <c r="D221" s="5">
         <v>213000</v>
       </c>
@@ -6953,9 +6512,7 @@
       <c r="B222" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="C222" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C222" s="4"/>
       <c r="D222" s="5">
         <v>213000</v>
       </c>
@@ -6970,9 +6527,7 @@
       <c r="B223" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="C223" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C223" s="4"/>
       <c r="D223" s="5">
         <v>210000</v>
       </c>
@@ -6987,9 +6542,7 @@
       <c r="B224" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="C224" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C224" s="4"/>
       <c r="D224" s="5">
         <v>214000</v>
       </c>
@@ -7004,9 +6557,7 @@
       <c r="B225" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="C225" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C225" s="4"/>
       <c r="D225" s="5">
         <v>214100</v>
       </c>
@@ -7021,9 +6572,7 @@
       <c r="B226" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="C226" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C226" s="4"/>
       <c r="D226" s="5">
         <v>214000</v>
       </c>
@@ -7038,9 +6587,7 @@
       <c r="B227" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="C227" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C227" s="4"/>
       <c r="D227" s="5">
         <v>214200</v>
       </c>
@@ -7055,9 +6602,7 @@
       <c r="B228" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="C228" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C228" s="4"/>
       <c r="D228" s="5">
         <v>214200</v>
       </c>
@@ -7072,9 +6617,7 @@
       <c r="B229" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="C229" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C229" s="4"/>
       <c r="D229" s="5">
         <v>214200</v>
       </c>
@@ -7089,9 +6632,7 @@
       <c r="B230" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="C230" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C230" s="4"/>
       <c r="D230" s="5">
         <v>214200</v>
       </c>
@@ -7106,9 +6647,7 @@
       <c r="B231" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="C231" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C231" s="4"/>
       <c r="D231" s="5">
         <v>210000</v>
       </c>
@@ -7123,9 +6662,7 @@
       <c r="B232" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="C232" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C232" s="4"/>
       <c r="D232" s="5">
         <v>210000</v>
       </c>
@@ -7140,9 +6677,7 @@
       <c r="B233" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C233" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C233" s="4"/>
       <c r="D233" s="5">
         <v>210000</v>
       </c>
@@ -7157,9 +6692,7 @@
       <c r="B234" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C234" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C234" s="4"/>
       <c r="D234" s="5">
         <v>217000</v>
       </c>
@@ -7174,9 +6707,7 @@
       <c r="B235" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="C235" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C235" s="4"/>
       <c r="D235" s="5">
         <v>217100</v>
       </c>
@@ -7191,9 +6722,7 @@
       <c r="B236" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="C236" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C236" s="4"/>
       <c r="D236" s="5">
         <v>217100</v>
       </c>
@@ -7208,9 +6737,7 @@
       <c r="B237" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="C237" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C237" s="4"/>
       <c r="D237" s="5">
         <v>217100</v>
       </c>
@@ -7225,9 +6752,7 @@
       <c r="B238" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="C238" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C238" s="4"/>
       <c r="D238" s="5">
         <v>217100</v>
       </c>
@@ -7242,9 +6767,7 @@
       <c r="B239" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="C239" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C239" s="4"/>
       <c r="D239" s="5">
         <v>217100</v>
       </c>
@@ -7259,9 +6782,7 @@
       <c r="B240" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="C240" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C240" s="4"/>
       <c r="D240" s="5">
         <v>217100</v>
       </c>
@@ -7276,9 +6797,7 @@
       <c r="B241" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="C241" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C241" s="4"/>
       <c r="D241" s="5">
         <v>217100</v>
       </c>
@@ -7293,9 +6812,7 @@
       <c r="B242" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="C242" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C242" s="4"/>
       <c r="D242" s="5">
         <v>217100</v>
       </c>
@@ -7310,9 +6827,7 @@
       <c r="B243" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="C243" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C243" s="4"/>
       <c r="D243" s="5">
         <v>217100</v>
       </c>
@@ -7327,9 +6842,7 @@
       <c r="B244" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C244" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C244" s="4"/>
       <c r="D244" s="5">
         <v>217100</v>
       </c>
@@ -7344,9 +6857,7 @@
       <c r="B245" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="C245" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C245" s="4"/>
       <c r="D245" s="5">
         <v>217100</v>
       </c>
@@ -7361,9 +6872,7 @@
       <c r="B246" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="C246" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C246" s="4"/>
       <c r="D246" s="5">
         <v>217100</v>
       </c>
@@ -7378,9 +6887,7 @@
       <c r="B247" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="C247" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C247" s="4"/>
       <c r="D247" s="5">
         <v>217100</v>
       </c>
@@ -7395,9 +6902,7 @@
       <c r="B248" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="C248" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C248" s="4"/>
       <c r="D248" s="5">
         <v>217100</v>
       </c>
@@ -7412,9 +6917,7 @@
       <c r="B249" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="C249" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C249" s="4"/>
       <c r="D249" s="5">
         <v>217100</v>
       </c>
@@ -7429,9 +6932,7 @@
       <c r="B250" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="C250" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C250" s="4"/>
       <c r="D250" s="5">
         <v>217100</v>
       </c>
@@ -7446,9 +6947,7 @@
       <c r="B251" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="C251" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C251" s="4"/>
       <c r="D251" s="5">
         <v>217100</v>
       </c>
@@ -7463,9 +6962,7 @@
       <c r="B252" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="C252" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C252" s="4"/>
       <c r="D252" s="5">
         <v>217000</v>
       </c>
@@ -7480,9 +6977,7 @@
       <c r="B253" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="C253" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C253" s="4"/>
       <c r="D253" s="5">
         <v>217200</v>
       </c>
@@ -7497,9 +6992,7 @@
       <c r="B254" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="C254" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C254" s="4"/>
       <c r="D254" s="5">
         <v>217200</v>
       </c>
@@ -7514,9 +7007,7 @@
       <c r="B255" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="C255" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C255" s="4"/>
       <c r="D255" s="5">
         <v>217200</v>
       </c>
@@ -7531,9 +7022,7 @@
       <c r="B256" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="C256" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C256" s="4"/>
       <c r="D256" s="5">
         <v>217000</v>
       </c>
@@ -7548,9 +7037,7 @@
       <c r="B257" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="C257" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C257" s="4"/>
       <c r="D257" s="5">
         <v>217300</v>
       </c>
@@ -7565,9 +7052,7 @@
       <c r="B258" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="C258" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C258" s="4"/>
       <c r="D258" s="5">
         <v>217300</v>
       </c>
@@ -7582,9 +7067,7 @@
       <c r="B259" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="C259" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C259" s="4"/>
       <c r="D259" s="5">
         <v>217000</v>
       </c>
@@ -7599,9 +7082,7 @@
       <c r="B260" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="C260" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C260" s="4"/>
       <c r="D260" s="5">
         <v>217400</v>
       </c>
@@ -7616,9 +7097,7 @@
       <c r="B261" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="C261" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C261" s="4"/>
       <c r="D261" s="5">
         <v>217400</v>
       </c>
@@ -7633,9 +7112,7 @@
       <c r="B262" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="C262" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C262" s="4"/>
       <c r="D262" s="5">
         <v>217400</v>
       </c>
@@ -7650,9 +7127,7 @@
       <c r="B263" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="C263" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C263" s="4"/>
       <c r="D263" s="5">
         <v>217400</v>
       </c>
@@ -7667,9 +7142,7 @@
       <c r="B264" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C264" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C264" s="4"/>
       <c r="D264" s="5">
         <v>217400</v>
       </c>
@@ -7684,9 +7157,7 @@
       <c r="B265" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C265" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C265" s="4"/>
       <c r="D265" s="5">
         <v>217400</v>
       </c>
@@ -7701,9 +7172,7 @@
       <c r="B266" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="C266" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C266" s="4"/>
       <c r="D266" s="5">
         <v>217400</v>
       </c>
@@ -7718,9 +7187,7 @@
       <c r="B267" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="C267" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C267" s="4"/>
       <c r="D267" s="5">
         <v>200000</v>
       </c>
@@ -7735,9 +7202,7 @@
       <c r="B268" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="C268" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C268" s="4"/>
       <c r="D268" s="5">
         <v>220000</v>
       </c>
@@ -7752,9 +7217,7 @@
       <c r="B269" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="C269" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C269" s="4"/>
       <c r="D269" s="5">
         <v>221000</v>
       </c>
@@ -7769,9 +7232,7 @@
       <c r="B270" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="C270" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C270" s="4"/>
       <c r="D270" s="5">
         <v>221000</v>
       </c>
@@ -7786,9 +7247,7 @@
       <c r="B271" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="C271" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C271" s="4"/>
       <c r="D271" s="5">
         <v>221000</v>
       </c>
@@ -7803,9 +7262,7 @@
       <c r="B272" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="C272" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C272" s="4"/>
       <c r="D272" s="5">
         <v>220000</v>
       </c>
@@ -7820,9 +7277,7 @@
       <c r="B273" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="C273" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C273" s="4"/>
       <c r="D273" s="5">
         <v>222000</v>
       </c>
@@ -7837,9 +7292,7 @@
       <c r="B274" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="C274" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C274" s="4"/>
       <c r="D274" s="5">
         <v>222000</v>
       </c>
@@ -7854,9 +7307,7 @@
       <c r="B275" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="C275" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C275" s="4"/>
       <c r="D275" s="5">
         <v>222000</v>
       </c>
@@ -7871,9 +7322,7 @@
       <c r="B276" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="C276" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C276" s="4"/>
       <c r="D276" s="5">
         <v>222000</v>
       </c>
@@ -7888,9 +7337,7 @@
       <c r="B277" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="C277" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C277" s="4"/>
       <c r="D277" s="5">
         <v>220000</v>
       </c>
@@ -7905,9 +7352,7 @@
       <c r="B278" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="C278" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C278" s="4"/>
       <c r="D278" s="5">
         <v>220000</v>
       </c>
@@ -7922,9 +7367,7 @@
       <c r="B279" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="C279" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C279" s="4"/>
       <c r="D279" s="5">
         <v>300000</v>
       </c>
@@ -7939,9 +7382,7 @@
       <c r="B280" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="C280" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C280" s="4"/>
       <c r="D280" s="5">
         <v>310000</v>
       </c>
@@ -7956,9 +7397,7 @@
       <c r="B281" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="C281" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C281" s="4"/>
       <c r="D281" s="5">
         <v>311000</v>
       </c>
@@ -7973,9 +7412,7 @@
       <c r="B282" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="C282" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C282" s="4"/>
       <c r="D282" s="5">
         <v>311000</v>
       </c>
@@ -7990,9 +7427,7 @@
       <c r="B283" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="C283" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C283" s="4"/>
       <c r="D283" s="5">
         <v>310000</v>
       </c>
@@ -8007,9 +7442,7 @@
       <c r="B284" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="C284" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C284" s="4"/>
       <c r="D284" s="5">
         <v>312000</v>
       </c>
@@ -8024,9 +7457,7 @@
       <c r="B285" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="C285" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C285" s="4"/>
       <c r="D285" s="5">
         <v>312000</v>
       </c>
@@ -8041,9 +7472,7 @@
       <c r="B286" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="C286" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C286" s="4"/>
       <c r="D286" s="5">
         <v>310000</v>
       </c>
@@ -8058,9 +7487,7 @@
       <c r="B287" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="C287" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C287" s="4"/>
       <c r="D287" s="5">
         <v>313000</v>
       </c>
@@ -8075,9 +7502,7 @@
       <c r="B288" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="C288" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C288" s="4"/>
       <c r="D288" s="5">
         <v>313000</v>
       </c>
@@ -8092,9 +7517,7 @@
       <c r="B289" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="C289" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C289" s="4"/>
       <c r="D289" s="5">
         <v>300000</v>
       </c>
@@ -8109,9 +7532,7 @@
       <c r="B290" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="C290" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C290" s="4"/>
       <c r="D290" s="5">
         <v>300000</v>
       </c>
@@ -8126,9 +7547,7 @@
       <c r="B291" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="C291" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C291" s="4"/>
       <c r="D291" s="5">
         <v>340000</v>
       </c>
@@ -8143,9 +7562,7 @@
       <c r="B292" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="C292" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C292" s="4"/>
       <c r="D292" s="5">
         <v>341000</v>
       </c>
@@ -8160,9 +7577,7 @@
       <c r="B293" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="C293" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C293" s="4"/>
       <c r="D293" s="5">
         <v>341000</v>
       </c>
@@ -8177,9 +7592,7 @@
       <c r="B294" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="C294" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C294" s="4"/>
       <c r="D294" s="5">
         <v>341000</v>
       </c>
@@ -8194,9 +7607,7 @@
       <c r="B295" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="C295" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C295" s="4"/>
       <c r="D295" s="5">
         <v>340000</v>
       </c>
@@ -8211,9 +7622,7 @@
       <c r="B296" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="C296" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C296" s="4"/>
       <c r="D296" s="5">
         <v>400000</v>
       </c>
@@ -8228,9 +7637,7 @@
       <c r="B297" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C297" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C297" s="4"/>
       <c r="D297" s="5">
         <v>410000</v>
       </c>
@@ -8245,9 +7652,7 @@
       <c r="B298" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="C298" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C298" s="4"/>
       <c r="D298" s="5">
         <v>411000</v>
       </c>
@@ -8262,9 +7667,7 @@
       <c r="B299" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="C299" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C299" s="4"/>
       <c r="D299" s="5">
         <v>411000</v>
       </c>
@@ -8279,9 +7682,7 @@
       <c r="B300" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="C300" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C300" s="4"/>
       <c r="D300" s="5">
         <v>411000</v>
       </c>
@@ -8296,9 +7697,7 @@
       <c r="B301" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="C301" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C301" s="4"/>
       <c r="D301" s="5">
         <v>411000</v>
       </c>
@@ -8313,9 +7712,7 @@
       <c r="B302" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="C302" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C302" s="4"/>
       <c r="D302" s="5">
         <v>411000</v>
       </c>
@@ -8330,9 +7727,7 @@
       <c r="B303" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="C303" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C303" s="4"/>
       <c r="D303" s="5">
         <v>411000</v>
       </c>
@@ -8347,9 +7742,7 @@
       <c r="B304" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="C304" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C304" s="4"/>
       <c r="D304" s="5">
         <v>411000</v>
       </c>
@@ -8364,9 +7757,7 @@
       <c r="B305" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="C305" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C305" s="4"/>
       <c r="D305" s="5">
         <v>411000</v>
       </c>
@@ -8381,9 +7772,7 @@
       <c r="B306" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="C306" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C306" s="4"/>
       <c r="D306" s="5">
         <v>411000</v>
       </c>
@@ -8398,9 +7787,7 @@
       <c r="B307" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="C307" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C307" s="4"/>
       <c r="D307" s="5">
         <v>411000</v>
       </c>
@@ -8415,9 +7802,7 @@
       <c r="B308" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="C308" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C308" s="4"/>
       <c r="D308" s="5">
         <v>411000</v>
       </c>
@@ -8432,9 +7817,7 @@
       <c r="B309" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C309" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C309" s="4"/>
       <c r="D309" s="5">
         <v>411000</v>
       </c>
@@ -8449,9 +7832,7 @@
       <c r="B310" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="C310" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C310" s="4"/>
       <c r="D310" s="5">
         <v>410000</v>
       </c>
@@ -8466,9 +7847,7 @@
       <c r="B311" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="C311" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C311" s="4"/>
       <c r="D311" s="5">
         <v>412000</v>
       </c>
@@ -8483,9 +7862,7 @@
       <c r="B312" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="C312" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C312" s="4"/>
       <c r="D312" s="5">
         <v>412000</v>
       </c>
@@ -8500,9 +7877,7 @@
       <c r="B313" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="C313" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C313" s="4"/>
       <c r="D313" s="5">
         <v>412000</v>
       </c>
@@ -8517,9 +7892,7 @@
       <c r="B314" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="C314" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C314" s="4"/>
       <c r="D314" s="5">
         <v>412000</v>
       </c>
@@ -8534,9 +7907,7 @@
       <c r="B315" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="C315" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C315" s="4"/>
       <c r="D315" s="5">
         <v>412000</v>
       </c>
@@ -8551,9 +7922,7 @@
       <c r="B316" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="C316" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C316" s="4"/>
       <c r="D316" s="5">
         <v>412000</v>
       </c>
@@ -8568,9 +7937,7 @@
       <c r="B317" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C317" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C317" s="4"/>
       <c r="D317" s="5">
         <v>400000</v>
       </c>
@@ -8585,9 +7952,7 @@
       <c r="B318" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C318" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C318" s="4"/>
       <c r="D318" s="5">
         <v>420000</v>
       </c>
@@ -8602,9 +7967,7 @@
       <c r="B319" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="C319" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C319" s="4"/>
       <c r="D319" s="5">
         <v>420000</v>
       </c>
@@ -8619,9 +7982,7 @@
       <c r="B320" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="C320" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C320" s="4"/>
       <c r="D320" s="5">
         <v>420000</v>
       </c>
@@ -8636,9 +7997,7 @@
       <c r="B321" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="C321" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C321" s="4"/>
       <c r="D321" s="5">
         <v>420000</v>
       </c>
@@ -8653,9 +8012,7 @@
       <c r="B322" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="C322" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C322" s="4"/>
       <c r="D322" s="5">
         <v>420000</v>
       </c>
@@ -8670,9 +8027,7 @@
       <c r="B323" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="C323" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C323" s="4"/>
       <c r="D323" s="5">
         <v>420000</v>
       </c>
@@ -8687,9 +8042,7 @@
       <c r="B324" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="C324" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C324" s="4"/>
       <c r="D324" s="5">
         <v>420000</v>
       </c>
@@ -8704,9 +8057,7 @@
       <c r="B325" s="9" t="s">
         <v>358</v>
       </c>
-      <c r="C325" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C325" s="4"/>
       <c r="D325" s="5">
         <v>420000</v>
       </c>
@@ -8721,9 +8072,7 @@
       <c r="B326" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="C326" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C326" s="4"/>
       <c r="D326" s="5">
         <v>400000</v>
       </c>
@@ -8738,9 +8087,7 @@
       <c r="B327" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="C327" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C327" s="4"/>
       <c r="D327" s="5">
         <v>430000</v>
       </c>
@@ -8755,9 +8102,7 @@
       <c r="B328" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="C328" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C328" s="4"/>
       <c r="D328" s="5">
         <v>430000</v>
       </c>
@@ -8772,9 +8117,7 @@
       <c r="B329" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="C329" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C329" s="4"/>
       <c r="D329" s="5">
         <v>430000</v>
       </c>
@@ -8789,9 +8132,7 @@
       <c r="B330" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="C330" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C330" s="4"/>
       <c r="D330" s="5">
         <v>430000</v>
       </c>
@@ -8806,9 +8147,7 @@
       <c r="B331" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="C331" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C331" s="4"/>
       <c r="D331" s="5">
         <v>430000</v>
       </c>
@@ -8823,9 +8162,7 @@
       <c r="B332" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="C332" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C332" s="4"/>
       <c r="D332" s="5">
         <v>430000</v>
       </c>
@@ -8840,9 +8177,7 @@
       <c r="B333" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C333" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C333" s="4"/>
       <c r="D333" s="5">
         <v>500000</v>
       </c>
@@ -8857,9 +8192,7 @@
       <c r="B334" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="C334" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C334" s="4"/>
       <c r="D334" s="7">
         <v>510000</v>
       </c>
@@ -8874,9 +8207,7 @@
       <c r="B335" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="C335" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C335" s="4"/>
       <c r="D335" s="7">
         <v>511000</v>
       </c>
@@ -8891,9 +8222,7 @@
       <c r="B336" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="C336" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C336" s="4"/>
       <c r="D336" s="7">
         <v>511100</v>
       </c>
@@ -8908,9 +8237,7 @@
       <c r="B337" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="C337" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C337" s="4"/>
       <c r="D337" s="7">
         <v>511100</v>
       </c>
@@ -8925,9 +8252,7 @@
       <c r="B338" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="C338" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C338" s="4"/>
       <c r="D338" s="7">
         <v>511100</v>
       </c>
@@ -8942,9 +8267,7 @@
       <c r="B339" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="C339" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C339" s="4"/>
       <c r="D339" s="7">
         <v>511100</v>
       </c>
@@ -8959,9 +8282,7 @@
       <c r="B340" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="C340" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C340" s="4"/>
       <c r="D340" s="7">
         <v>511100</v>
       </c>
@@ -8976,9 +8297,7 @@
       <c r="B341" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="C341" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C341" s="4"/>
       <c r="D341" s="7">
         <v>511100</v>
       </c>
@@ -8993,9 +8312,7 @@
       <c r="B342" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="C342" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C342" s="4"/>
       <c r="D342" s="7">
         <v>511100</v>
       </c>
@@ -9010,9 +8327,7 @@
       <c r="B343" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="C343" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C343" s="4"/>
       <c r="D343" s="7">
         <v>511100</v>
       </c>
@@ -9027,9 +8342,7 @@
       <c r="B344" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="C344" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C344" s="4"/>
       <c r="D344" s="7">
         <v>511100</v>
       </c>
@@ -9044,9 +8357,7 @@
       <c r="B345" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="C345" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C345" s="4"/>
       <c r="D345" s="7">
         <v>511100</v>
       </c>
@@ -9061,9 +8372,7 @@
       <c r="B346" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="C346" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C346" s="4"/>
       <c r="D346" s="7">
         <v>511100</v>
       </c>
@@ -9078,9 +8387,7 @@
       <c r="B347" s="9" t="s">
         <v>379</v>
       </c>
-      <c r="C347" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C347" s="4"/>
       <c r="D347" s="7">
         <v>511100</v>
       </c>
@@ -9095,9 +8402,7 @@
       <c r="B348" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="C348" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C348" s="4"/>
       <c r="D348" s="7">
         <v>511100</v>
       </c>
@@ -9112,9 +8417,7 @@
       <c r="B349" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="C349" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C349" s="4"/>
       <c r="D349" s="7">
         <v>511100</v>
       </c>
@@ -9129,9 +8432,7 @@
       <c r="B350" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="C350" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C350" s="4"/>
       <c r="D350" s="7">
         <v>511100</v>
       </c>
@@ -9146,9 +8447,7 @@
       <c r="B351" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="C351" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C351" s="4"/>
       <c r="D351" s="7">
         <v>511100</v>
       </c>
@@ -9163,9 +8462,7 @@
       <c r="B352" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C352" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C352" s="4"/>
       <c r="D352" s="7">
         <v>511100</v>
       </c>
@@ -9180,9 +8477,7 @@
       <c r="B353" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="C353" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C353" s="4"/>
       <c r="D353" s="7">
         <v>511100</v>
       </c>
@@ -9197,9 +8492,7 @@
       <c r="B354" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="C354" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C354" s="4"/>
       <c r="D354" s="7">
         <v>511100</v>
       </c>
@@ -9214,9 +8507,7 @@
       <c r="B355" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="C355" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C355" s="4"/>
       <c r="D355" s="7">
         <v>511000</v>
       </c>
@@ -9231,9 +8522,7 @@
       <c r="B356" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="C356" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C356" s="4"/>
       <c r="D356" s="7">
         <v>511200</v>
       </c>
@@ -9248,9 +8537,7 @@
       <c r="B357" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="C357" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C357" s="4"/>
       <c r="D357" s="7">
         <v>511200</v>
       </c>
@@ -9265,9 +8552,7 @@
       <c r="B358" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="C358" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C358" s="4"/>
       <c r="D358" s="7">
         <v>511000</v>
       </c>
@@ -9282,9 +8567,7 @@
       <c r="B359" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C359" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C359" s="4"/>
       <c r="D359" s="7">
         <v>511300</v>
       </c>
@@ -9299,9 +8582,7 @@
       <c r="B360" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C360" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C360" s="4"/>
       <c r="D360" s="7">
         <v>511300</v>
       </c>
@@ -9316,9 +8597,7 @@
       <c r="B361" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="C361" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C361" s="4"/>
       <c r="D361" s="7">
         <v>511300</v>
       </c>
@@ -9333,9 +8612,7 @@
       <c r="B362" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="C362" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C362" s="4"/>
       <c r="D362" s="7">
         <v>511300</v>
       </c>
@@ -9350,9 +8627,7 @@
       <c r="B363" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="C363" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C363" s="4"/>
       <c r="D363" s="7">
         <v>511300</v>
       </c>
@@ -9367,9 +8642,7 @@
       <c r="B364" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="C364" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C364" s="4"/>
       <c r="D364" s="7">
         <v>511300</v>
       </c>
@@ -9384,9 +8657,7 @@
       <c r="B365" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="C365" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C365" s="4"/>
       <c r="D365" s="7">
         <v>511300</v>
       </c>
@@ -9401,9 +8672,7 @@
       <c r="B366" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="C366" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C366" s="4"/>
       <c r="D366" s="7">
         <v>511300</v>
       </c>
@@ -9418,9 +8687,7 @@
       <c r="B367" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C367" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C367" s="4"/>
       <c r="D367" s="7">
         <v>511300</v>
       </c>
@@ -9435,9 +8702,7 @@
       <c r="B368" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="C368" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C368" s="4"/>
       <c r="D368" s="7">
         <v>511000</v>
       </c>
@@ -9452,9 +8717,7 @@
       <c r="B369" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C369" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C369" s="4"/>
       <c r="D369" s="7">
         <v>511500</v>
       </c>
@@ -9469,9 +8732,7 @@
       <c r="B370" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="C370" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C370" s="4"/>
       <c r="D370" s="7">
         <v>511500</v>
       </c>
@@ -9486,9 +8747,7 @@
       <c r="B371" s="9" t="s">
         <v>394</v>
       </c>
-      <c r="C371" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C371" s="4"/>
       <c r="D371" s="7">
         <v>511500</v>
       </c>
@@ -9503,9 +8762,7 @@
       <c r="B372" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="C372" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C372" s="4"/>
       <c r="D372" s="7">
         <v>511500</v>
       </c>
@@ -9520,9 +8777,7 @@
       <c r="B373" s="9" t="s">
         <v>396</v>
       </c>
-      <c r="C373" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C373" s="4"/>
       <c r="D373" s="7">
         <v>511500</v>
       </c>
@@ -9537,9 +8792,7 @@
       <c r="B374" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="C374" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C374" s="4"/>
       <c r="D374" s="7">
         <v>510000</v>
       </c>
@@ -9554,9 +8807,7 @@
       <c r="B375" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="C375" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C375" s="4"/>
       <c r="D375" s="7">
         <v>512000</v>
       </c>
@@ -9571,9 +8822,7 @@
       <c r="B376" s="9" t="s">
         <v>399</v>
       </c>
-      <c r="C376" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C376" s="4"/>
       <c r="D376" s="7">
         <v>512100</v>
       </c>
@@ -9588,9 +8837,7 @@
       <c r="B377" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="C377" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C377" s="4"/>
       <c r="D377" s="7">
         <v>512100</v>
       </c>
@@ -9605,9 +8852,7 @@
       <c r="B378" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="C378" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C378" s="4"/>
       <c r="D378" s="7">
         <v>512100</v>
       </c>
@@ -9622,9 +8867,7 @@
       <c r="B379" s="9" t="s">
         <v>402</v>
       </c>
-      <c r="C379" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C379" s="4"/>
       <c r="D379" s="7">
         <v>512100</v>
       </c>
@@ -9639,9 +8882,7 @@
       <c r="B380" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="C380" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C380" s="4"/>
       <c r="D380" s="7">
         <v>512100</v>
       </c>
@@ -9656,9 +8897,7 @@
       <c r="B381" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="C381" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C381" s="4"/>
       <c r="D381" s="7">
         <v>512100</v>
       </c>
@@ -9673,9 +8912,7 @@
       <c r="B382" s="9" t="s">
         <v>405</v>
       </c>
-      <c r="C382" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C382" s="4"/>
       <c r="D382" s="7">
         <v>512100</v>
       </c>
@@ -9690,9 +8927,7 @@
       <c r="B383" s="9" t="s">
         <v>406</v>
       </c>
-      <c r="C383" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C383" s="4"/>
       <c r="D383" s="7">
         <v>512100</v>
       </c>
@@ -9707,9 +8942,7 @@
       <c r="B384" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="C384" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C384" s="4"/>
       <c r="D384" s="7">
         <v>512100</v>
       </c>
@@ -9724,9 +8957,7 @@
       <c r="B385" s="9" t="s">
         <v>408</v>
       </c>
-      <c r="C385" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C385" s="4"/>
       <c r="D385" s="7">
         <v>512100</v>
       </c>
@@ -9741,9 +8972,7 @@
       <c r="B386" s="9" t="s">
         <v>409</v>
       </c>
-      <c r="C386" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C386" s="4"/>
       <c r="D386" s="7">
         <v>512000</v>
       </c>
@@ -9758,9 +8987,7 @@
       <c r="B387" s="9" t="s">
         <v>410</v>
       </c>
-      <c r="C387" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C387" s="4"/>
       <c r="D387" s="7">
         <v>512200</v>
       </c>
@@ -9775,9 +9002,7 @@
       <c r="B388" s="9" t="s">
         <v>411</v>
       </c>
-      <c r="C388" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C388" s="4"/>
       <c r="D388" s="7">
         <v>512200</v>
       </c>
@@ -9792,9 +9017,7 @@
       <c r="B389" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="C389" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C389" s="4"/>
       <c r="D389" s="7">
         <v>512200</v>
       </c>
@@ -9809,9 +9032,7 @@
       <c r="B390" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="C390" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C390" s="4"/>
       <c r="D390" s="7">
         <v>512200</v>
       </c>
@@ -9826,9 +9047,7 @@
       <c r="B391" s="9" t="s">
         <v>414</v>
       </c>
-      <c r="C391" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C391" s="4"/>
       <c r="D391" s="7">
         <v>512200</v>
       </c>
@@ -9843,9 +9062,7 @@
       <c r="B392" s="9" t="s">
         <v>415</v>
       </c>
-      <c r="C392" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C392" s="4"/>
       <c r="D392" s="7">
         <v>512200</v>
       </c>
@@ -9860,9 +9077,7 @@
       <c r="B393" s="9" t="s">
         <v>416</v>
       </c>
-      <c r="C393" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C393" s="4"/>
       <c r="D393" s="7">
         <v>512000</v>
       </c>
@@ -9877,9 +9092,7 @@
       <c r="B394" s="9" t="s">
         <v>417</v>
       </c>
-      <c r="C394" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C394" s="4"/>
       <c r="D394" s="7">
         <v>512300</v>
       </c>
@@ -9894,9 +9107,7 @@
       <c r="B395" s="9" t="s">
         <v>418</v>
       </c>
-      <c r="C395" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C395" s="4"/>
       <c r="D395" s="7">
         <v>512300</v>
       </c>
@@ -9911,9 +9122,7 @@
       <c r="B396" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="C396" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C396" s="4"/>
       <c r="D396" s="7">
         <v>512300</v>
       </c>
@@ -9928,9 +9137,7 @@
       <c r="B397" s="9" t="s">
         <v>420</v>
       </c>
-      <c r="C397" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C397" s="4"/>
       <c r="D397" s="7">
         <v>512300</v>
       </c>
@@ -9945,9 +9152,7 @@
       <c r="B398" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="C398" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C398" s="4"/>
       <c r="D398" s="7">
         <v>512300</v>
       </c>
@@ -9962,9 +9167,7 @@
       <c r="B399" s="9" t="s">
         <v>422</v>
       </c>
-      <c r="C399" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C399" s="4"/>
       <c r="D399" s="7">
         <v>512300</v>
       </c>
@@ -9979,9 +9182,7 @@
       <c r="B400" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="C400" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C400" s="4"/>
       <c r="D400" s="7">
         <v>512300</v>
       </c>
@@ -9996,9 +9197,7 @@
       <c r="B401" s="9" t="s">
         <v>424</v>
       </c>
-      <c r="C401" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C401" s="4"/>
       <c r="D401" s="7">
         <v>512300</v>
       </c>
@@ -10013,9 +9212,7 @@
       <c r="B402" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="C402" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C402" s="4"/>
       <c r="D402" s="7">
         <v>512300</v>
       </c>
@@ -10030,9 +9227,7 @@
       <c r="B403" s="9" t="s">
         <v>426</v>
       </c>
-      <c r="C403" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C403" s="4"/>
       <c r="D403" s="7">
         <v>512300</v>
       </c>
@@ -10047,9 +9242,7 @@
       <c r="B404" s="9" t="s">
         <v>427</v>
       </c>
-      <c r="C404" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C404" s="4"/>
       <c r="D404" s="7">
         <v>512300</v>
       </c>
@@ -10064,9 +9257,7 @@
       <c r="B405" s="9" t="s">
         <v>428</v>
       </c>
-      <c r="C405" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C405" s="4"/>
       <c r="D405" s="7">
         <v>512300</v>
       </c>
@@ -10081,9 +9272,7 @@
       <c r="B406" s="9" t="s">
         <v>429</v>
       </c>
-      <c r="C406" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C406" s="4"/>
       <c r="D406" s="7">
         <v>512300</v>
       </c>
@@ -10098,9 +9287,7 @@
       <c r="B407" s="9" t="s">
         <v>430</v>
       </c>
-      <c r="C407" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C407" s="4"/>
       <c r="D407" s="7">
         <v>512300</v>
       </c>
@@ -10115,9 +9302,7 @@
       <c r="B408" s="9" t="s">
         <v>431</v>
       </c>
-      <c r="C408" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C408" s="4"/>
       <c r="D408" s="7">
         <v>512300</v>
       </c>
@@ -10132,9 +9317,7 @@
       <c r="B409" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="C409" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C409" s="4"/>
       <c r="D409" s="7">
         <v>512000</v>
       </c>
@@ -10149,9 +9332,7 @@
       <c r="B410" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="C410" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C410" s="4"/>
       <c r="D410" s="7">
         <v>512400</v>
       </c>
@@ -10166,9 +9347,7 @@
       <c r="B411" s="9" t="s">
         <v>434</v>
       </c>
-      <c r="C411" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C411" s="4"/>
       <c r="D411" s="7">
         <v>512400</v>
       </c>
@@ -10183,9 +9362,7 @@
       <c r="B412" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="C412" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C412" s="4"/>
       <c r="D412" s="7">
         <v>512400</v>
       </c>
@@ -10200,9 +9377,7 @@
       <c r="B413" s="9" t="s">
         <v>436</v>
       </c>
-      <c r="C413" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C413" s="4"/>
       <c r="D413" s="7">
         <v>512400</v>
       </c>
@@ -10217,9 +9392,7 @@
       <c r="B414" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="C414" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C414" s="4"/>
       <c r="D414" s="7">
         <v>512400</v>
       </c>
@@ -10234,9 +9407,7 @@
       <c r="B415" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="C415" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C415" s="4"/>
       <c r="D415" s="7">
         <v>512400</v>
       </c>
@@ -10251,9 +9422,7 @@
       <c r="B416" s="9" t="s">
         <v>439</v>
       </c>
-      <c r="C416" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C416" s="4"/>
       <c r="D416" s="7">
         <v>512000</v>
       </c>
@@ -10268,9 +9437,7 @@
       <c r="B417" s="9" t="s">
         <v>440</v>
       </c>
-      <c r="C417" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C417" s="4"/>
       <c r="D417" s="7">
         <v>512500</v>
       </c>
@@ -10285,9 +9452,7 @@
       <c r="B418" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="C418" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C418" s="4"/>
       <c r="D418" s="7">
         <v>600000</v>
       </c>
@@ -10302,9 +9467,7 @@
       <c r="B419" s="9" t="s">
         <v>442</v>
       </c>
-      <c r="C419" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C419" s="4"/>
       <c r="D419" s="7">
         <v>611000</v>
       </c>
@@ -10319,9 +9482,7 @@
       <c r="B420" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="C420" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C420" s="4"/>
       <c r="D420" s="7">
         <v>611100</v>
       </c>
@@ -10336,9 +9497,7 @@
       <c r="B421" s="9" t="s">
         <v>444</v>
       </c>
-      <c r="C421" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C421" s="4"/>
       <c r="D421" s="7">
         <v>611100</v>
       </c>
@@ -10353,9 +9512,7 @@
       <c r="B422" s="9" t="s">
         <v>445</v>
       </c>
-      <c r="C422" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C422" s="4"/>
       <c r="D422" s="7">
         <v>611100</v>
       </c>
@@ -10370,9 +9527,7 @@
       <c r="B423" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="C423" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C423" s="4"/>
       <c r="D423" s="7">
         <v>611100</v>
       </c>
@@ -10387,9 +9542,7 @@
       <c r="B424" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="C424" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C424" s="4"/>
       <c r="D424" s="7">
         <v>611100</v>
       </c>
@@ -10404,9 +9557,7 @@
       <c r="B425" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="C425" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C425" s="4"/>
       <c r="D425" s="7">
         <v>611100</v>
       </c>
@@ -10421,9 +9572,7 @@
       <c r="B426" s="9" t="s">
         <v>449</v>
       </c>
-      <c r="C426" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C426" s="4"/>
       <c r="D426" s="7">
         <v>611100</v>
       </c>
@@ -10438,9 +9587,7 @@
       <c r="B427" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="C427" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C427" s="4"/>
       <c r="D427" s="7">
         <v>611100</v>
       </c>
@@ -10455,9 +9602,7 @@
       <c r="B428" s="9" t="s">
         <v>451</v>
       </c>
-      <c r="C428" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C428" s="4"/>
       <c r="D428" s="7">
         <v>611100</v>
       </c>
@@ -10472,9 +9617,7 @@
       <c r="B429" s="9" t="s">
         <v>452</v>
       </c>
-      <c r="C429" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C429" s="4"/>
       <c r="D429" s="7">
         <v>611100</v>
       </c>
@@ -10489,9 +9632,7 @@
       <c r="B430" s="9" t="s">
         <v>399</v>
       </c>
-      <c r="C430" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C430" s="4"/>
       <c r="D430" s="7">
         <v>611100</v>
       </c>
@@ -10506,9 +9647,7 @@
       <c r="B431" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="C431" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C431" s="4"/>
       <c r="D431" s="7">
         <v>611100</v>
       </c>
@@ -10523,9 +9662,7 @@
       <c r="B432" s="9" t="s">
         <v>401</v>
       </c>
-      <c r="C432" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C432" s="4"/>
       <c r="D432" s="7">
         <v>611100</v>
       </c>
@@ -10540,9 +9677,7 @@
       <c r="B433" s="9" t="s">
         <v>402</v>
       </c>
-      <c r="C433" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C433" s="4"/>
       <c r="D433" s="7">
         <v>611100</v>
       </c>
@@ -10557,9 +9692,7 @@
       <c r="B434" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="C434" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C434" s="4"/>
       <c r="D434" s="7">
         <v>611100</v>
       </c>
@@ -10574,9 +9707,7 @@
       <c r="B435" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="C435" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C435" s="4"/>
       <c r="D435" s="7">
         <v>611100</v>
       </c>
@@ -10591,9 +9722,7 @@
       <c r="B436" s="9" t="s">
         <v>405</v>
       </c>
-      <c r="C436" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C436" s="4"/>
       <c r="D436" s="7">
         <v>611100</v>
       </c>
@@ -10608,9 +9737,7 @@
       <c r="B437" s="9" t="s">
         <v>406</v>
       </c>
-      <c r="C437" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C437" s="4"/>
       <c r="D437" s="7">
         <v>611100</v>
       </c>
@@ -10625,9 +9752,7 @@
       <c r="B438" s="9" t="s">
         <v>453</v>
       </c>
-      <c r="C438" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C438" s="4"/>
       <c r="D438" s="7">
         <v>600000</v>
       </c>
@@ -10642,9 +9767,7 @@
       <c r="B439" s="9" t="s">
         <v>454</v>
       </c>
-      <c r="C439" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C439" s="4"/>
       <c r="D439" s="7">
         <v>611200</v>
       </c>
@@ -10659,9 +9782,7 @@
       <c r="B440" s="9" t="s">
         <v>455</v>
       </c>
-      <c r="C440" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C440" s="4"/>
       <c r="D440" s="7">
         <v>611200</v>
       </c>
@@ -10676,9 +9797,7 @@
       <c r="B441" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="C441" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C441" s="4"/>
       <c r="D441" s="7">
         <v>600000</v>
       </c>
@@ -10693,9 +9812,7 @@
       <c r="B442" s="9" t="s">
         <v>457</v>
       </c>
-      <c r="C442" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C442" s="4"/>
       <c r="D442" s="7">
         <v>611300</v>
       </c>
@@ -10710,9 +9827,7 @@
       <c r="B443" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C443" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C443" s="4"/>
       <c r="D443" s="7">
         <v>611300</v>
       </c>
@@ -10727,9 +9842,7 @@
       <c r="B444" s="9" t="s">
         <v>458</v>
       </c>
-      <c r="C444" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C444" s="4"/>
       <c r="D444" s="7">
         <v>611300</v>
       </c>
@@ -10744,9 +9857,7 @@
       <c r="B445" s="9" t="s">
         <v>459</v>
       </c>
-      <c r="C445" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C445" s="4"/>
       <c r="D445" s="7">
         <v>611300</v>
       </c>
@@ -10761,9 +9872,7 @@
       <c r="B446" s="9" t="s">
         <v>460</v>
       </c>
-      <c r="C446" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C446" s="4"/>
       <c r="D446" s="7">
         <v>600000</v>
       </c>
@@ -10778,9 +9887,7 @@
       <c r="B447" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="C447" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C447" s="4"/>
       <c r="D447" s="7">
         <v>611400</v>
       </c>
@@ -10795,9 +9902,7 @@
       <c r="B448" s="9" t="s">
         <v>462</v>
       </c>
-      <c r="C448" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C448" s="4"/>
       <c r="D448" s="7">
         <v>611400</v>
       </c>
@@ -10812,9 +9917,7 @@
       <c r="B449" s="9" t="s">
         <v>463</v>
       </c>
-      <c r="C449" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C449" s="4"/>
       <c r="D449" s="7">
         <v>611400</v>
       </c>
@@ -10829,9 +9932,7 @@
       <c r="B450" s="9" t="s">
         <v>464</v>
       </c>
-      <c r="C450" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C450" s="4"/>
       <c r="D450" s="7">
         <v>611400</v>
       </c>
@@ -10846,9 +9947,7 @@
       <c r="B451" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="C451" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C451" s="4"/>
       <c r="D451" s="7">
         <v>611400</v>
       </c>
@@ -10863,9 +9962,7 @@
       <c r="B452" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C452" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C452" s="4"/>
       <c r="D452" s="7">
         <v>600000</v>
       </c>
@@ -10880,9 +9977,7 @@
       <c r="B453" s="9" t="s">
         <v>466</v>
       </c>
-      <c r="C453" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C453" s="4"/>
       <c r="D453" s="7">
         <v>611500</v>
       </c>
@@ -10897,9 +9992,7 @@
       <c r="B454" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="C454" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C454" s="4"/>
       <c r="D454" s="7">
         <v>611500</v>
       </c>
@@ -10914,9 +10007,7 @@
       <c r="B455" s="9" t="s">
         <v>468</v>
       </c>
-      <c r="C455" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C455" s="4"/>
       <c r="D455" s="7">
         <v>611500</v>
       </c>
@@ -10931,9 +10022,7 @@
       <c r="B456" s="9" t="s">
         <v>469</v>
       </c>
-      <c r="C456" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C456" s="4"/>
       <c r="D456" s="7">
         <v>611500</v>
       </c>
@@ -10948,9 +10037,7 @@
       <c r="B457" s="9" t="s">
         <v>470</v>
       </c>
-      <c r="C457" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C457" s="4"/>
       <c r="D457" s="7">
         <v>611500</v>
       </c>
@@ -10965,9 +10052,7 @@
       <c r="B458" s="9" t="s">
         <v>471</v>
       </c>
-      <c r="C458" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C458" s="4"/>
       <c r="D458" s="7">
         <v>611500</v>
       </c>
@@ -10982,9 +10067,7 @@
       <c r="B459" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="C459" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C459" s="4"/>
       <c r="D459" s="7">
         <v>600000</v>
       </c>
@@ -10999,9 +10082,7 @@
       <c r="B460" s="9" t="s">
         <v>473</v>
       </c>
-      <c r="C460" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C460" s="4"/>
       <c r="D460" s="7">
         <v>611600</v>
       </c>
@@ -11016,9 +10097,7 @@
       <c r="B461" s="9" t="s">
         <v>474</v>
       </c>
-      <c r="C461" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C461" s="4"/>
       <c r="D461" s="7">
         <v>611600</v>
       </c>
@@ -11033,9 +10112,7 @@
       <c r="B462" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="C462" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C462" s="4"/>
       <c r="D462" s="7">
         <v>611600</v>
       </c>
@@ -11050,9 +10127,7 @@
       <c r="B463" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="C463" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C463" s="4"/>
       <c r="D463" s="7">
         <v>600000</v>
       </c>
@@ -11067,9 +10142,7 @@
       <c r="B464" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="C464" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C464" s="4"/>
       <c r="D464" s="7">
         <v>611700</v>
       </c>
@@ -11084,9 +10157,7 @@
       <c r="B465" s="9" t="s">
         <v>478</v>
       </c>
-      <c r="C465" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C465" s="4"/>
       <c r="D465" s="7">
         <v>611700</v>
       </c>
@@ -11101,9 +10172,7 @@
       <c r="B466" s="9" t="s">
         <v>479</v>
       </c>
-      <c r="C466" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C466" s="4"/>
       <c r="D466" s="7">
         <v>611700</v>
       </c>
@@ -11118,9 +10187,7 @@
       <c r="B467" s="9" t="s">
         <v>480</v>
       </c>
-      <c r="C467" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C467" s="4"/>
       <c r="D467" s="7">
         <v>611700</v>
       </c>
@@ -11135,9 +10202,7 @@
       <c r="B468" s="9" t="s">
         <v>481</v>
       </c>
-      <c r="C468" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C468" s="4"/>
       <c r="D468" s="7">
         <v>611700</v>
       </c>
@@ -11152,9 +10217,7 @@
       <c r="B469" s="9" t="s">
         <v>482</v>
       </c>
-      <c r="C469" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C469" s="4"/>
       <c r="D469" s="7">
         <v>611700</v>
       </c>
@@ -11169,9 +10232,7 @@
       <c r="B470" s="9" t="s">
         <v>483</v>
       </c>
-      <c r="C470" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C470" s="4"/>
       <c r="D470" s="7">
         <v>611720</v>
       </c>
@@ -11186,9 +10247,7 @@
       <c r="B471" s="9" t="s">
         <v>484</v>
       </c>
-      <c r="C471" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C471" s="4"/>
       <c r="D471" s="7">
         <v>611720</v>
       </c>
@@ -11203,9 +10262,7 @@
       <c r="B472" s="9" t="s">
         <v>485</v>
       </c>
-      <c r="C472" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C472" s="4"/>
       <c r="D472" s="7">
         <v>611720</v>
       </c>
@@ -11220,9 +10277,7 @@
       <c r="B473" s="9" t="s">
         <v>486</v>
       </c>
-      <c r="C473" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C473" s="4"/>
       <c r="D473" s="7">
         <v>611720</v>
       </c>
@@ -11237,9 +10292,7 @@
       <c r="B474" s="9" t="s">
         <v>487</v>
       </c>
-      <c r="C474" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C474" s="4"/>
       <c r="D474" s="7">
         <v>611720</v>
       </c>
@@ -11254,9 +10307,7 @@
       <c r="B475" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C475" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C475" s="4"/>
       <c r="D475" s="7">
         <v>611720</v>
       </c>
@@ -11271,9 +10322,7 @@
       <c r="B476" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C476" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C476" s="4"/>
       <c r="D476" s="7">
         <v>600000</v>
       </c>
@@ -11288,9 +10337,7 @@
       <c r="B477" s="9" t="s">
         <v>488</v>
       </c>
-      <c r="C477" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C477" s="4"/>
       <c r="D477" s="7">
         <v>611800</v>
       </c>
@@ -11305,9 +10352,7 @@
       <c r="B478" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="C478" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C478" s="4"/>
       <c r="D478" s="7">
         <v>611800</v>
       </c>
@@ -11322,9 +10367,7 @@
       <c r="B479" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C479" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C479" s="4"/>
       <c r="D479" s="7">
         <v>611800</v>
       </c>
@@ -11339,9 +10382,7 @@
       <c r="B480" s="9" t="s">
         <v>490</v>
       </c>
-      <c r="C480" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C480" s="4"/>
       <c r="D480" s="7">
         <v>611800</v>
       </c>
@@ -11356,9 +10397,7 @@
       <c r="B481" s="9" t="s">
         <v>491</v>
       </c>
-      <c r="C481" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C481" s="4"/>
       <c r="D481" s="7">
         <v>611800</v>
       </c>
@@ -11373,9 +10412,7 @@
       <c r="B482" s="9" t="s">
         <v>492</v>
       </c>
-      <c r="C482" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C482" s="4"/>
       <c r="D482" s="7">
         <v>611800</v>
       </c>
@@ -11390,9 +10427,7 @@
       <c r="B483" s="9" t="s">
         <v>493</v>
       </c>
-      <c r="C483" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C483" s="4"/>
       <c r="D483" s="7">
         <v>611800</v>
       </c>
@@ -11407,9 +10442,7 @@
       <c r="B484" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C484" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C484" s="4"/>
       <c r="D484" s="7">
         <v>611800</v>
       </c>
@@ -11424,9 +10457,7 @@
       <c r="B485" s="9" t="s">
         <v>494</v>
       </c>
-      <c r="C485" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C485" s="4"/>
       <c r="D485" s="7">
         <v>600000</v>
       </c>
@@ -11441,9 +10472,7 @@
       <c r="B486" s="9" t="s">
         <v>495</v>
       </c>
-      <c r="C486" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C486" s="4"/>
       <c r="D486" s="7">
         <v>611900</v>
       </c>
@@ -11458,9 +10487,7 @@
       <c r="B487" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C487" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C487" s="4"/>
       <c r="D487" s="7">
         <v>611900</v>
       </c>
@@ -11475,9 +10502,7 @@
       <c r="B488" s="9" t="s">
         <v>496</v>
       </c>
-      <c r="C488" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C488" s="4"/>
       <c r="D488" s="7">
         <v>611900</v>
       </c>
@@ -11492,9 +10517,7 @@
       <c r="B489" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C489" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C489" s="4"/>
       <c r="D489" s="7">
         <v>700000</v>
       </c>
@@ -11509,9 +10532,7 @@
       <c r="B490" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C490" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C490" s="4"/>
       <c r="D490" s="7">
         <v>710000</v>
       </c>
@@ -11526,9 +10547,7 @@
       <c r="B491" s="9" t="s">
         <v>442</v>
       </c>
-      <c r="C491" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C491" s="4"/>
       <c r="D491" s="7">
         <v>711000</v>
       </c>
@@ -11543,9 +10562,7 @@
       <c r="B492" s="9" t="s">
         <v>497</v>
       </c>
-      <c r="C492" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C492" s="4"/>
       <c r="D492" s="7">
         <v>711100</v>
       </c>
@@ -11560,9 +10577,7 @@
       <c r="B493" s="9" t="s">
         <v>498</v>
       </c>
-      <c r="C493" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C493" s="4"/>
       <c r="D493" s="7">
         <v>711100</v>
       </c>
@@ -11577,9 +10592,7 @@
       <c r="B494" s="9" t="s">
         <v>499</v>
       </c>
-      <c r="C494" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C494" s="4"/>
       <c r="D494" s="7">
         <v>711100</v>
       </c>
@@ -11594,9 +10607,7 @@
       <c r="B495" s="9" t="s">
         <v>500</v>
       </c>
-      <c r="C495" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C495" s="4"/>
       <c r="D495" s="7">
         <v>711100</v>
       </c>
@@ -11611,9 +10622,7 @@
       <c r="B496" s="9" t="s">
         <v>501</v>
       </c>
-      <c r="C496" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C496" s="4"/>
       <c r="D496" s="7">
         <v>711100</v>
       </c>
@@ -11628,9 +10637,7 @@
       <c r="B497" s="9" t="s">
         <v>502</v>
       </c>
-      <c r="C497" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C497" s="4"/>
       <c r="D497" s="7">
         <v>711100</v>
       </c>
@@ -11645,9 +10652,7 @@
       <c r="B498" s="9" t="s">
         <v>503</v>
       </c>
-      <c r="C498" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C498" s="4"/>
       <c r="D498" s="7">
         <v>711100</v>
       </c>
@@ -11662,9 +10667,7 @@
       <c r="B499" s="9" t="s">
         <v>504</v>
       </c>
-      <c r="C499" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C499" s="4"/>
       <c r="D499" s="7">
         <v>711100</v>
       </c>
@@ -11679,9 +10682,7 @@
       <c r="B500" s="9" t="s">
         <v>505</v>
       </c>
-      <c r="C500" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C500" s="4"/>
       <c r="D500" s="7">
         <v>711100</v>
       </c>
@@ -11696,9 +10697,7 @@
       <c r="B501" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="C501" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C501" s="4"/>
       <c r="D501" s="7">
         <v>711100</v>
       </c>
@@ -11713,9 +10712,7 @@
       <c r="B502" s="9" t="s">
         <v>507</v>
       </c>
-      <c r="C502" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C502" s="4"/>
       <c r="D502" s="7">
         <v>711100</v>
       </c>
@@ -11730,9 +10727,7 @@
       <c r="B503" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C503" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C503" s="4"/>
       <c r="D503" s="7">
         <v>711100</v>
       </c>
@@ -11747,9 +10742,7 @@
       <c r="B504" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C504" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C504" s="4"/>
       <c r="D504" s="7">
         <v>711000</v>
       </c>
@@ -11764,9 +10757,7 @@
       <c r="B505" s="9" t="s">
         <v>491</v>
       </c>
-      <c r="C505" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C505" s="4"/>
       <c r="D505" s="7">
         <v>711200</v>
       </c>
@@ -11781,9 +10772,7 @@
       <c r="B506" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="C506" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C506" s="4"/>
       <c r="D506" s="7">
         <v>711200</v>
       </c>
@@ -11798,9 +10787,7 @@
       <c r="B507" s="9" t="s">
         <v>490</v>
       </c>
-      <c r="C507" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C507" s="4"/>
       <c r="D507" s="7">
         <v>711200</v>
       </c>
@@ -11815,9 +10802,7 @@
       <c r="B508" s="9" t="s">
         <v>509</v>
       </c>
-      <c r="C508" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C508" s="4"/>
       <c r="D508" s="7">
         <v>711200</v>
       </c>
@@ -11832,9 +10817,7 @@
       <c r="B509" s="9" t="s">
         <v>492</v>
       </c>
-      <c r="C509" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C509" s="4"/>
       <c r="D509" s="7">
         <v>711200</v>
       </c>
@@ -11849,9 +10832,7 @@
       <c r="B510" s="9" t="s">
         <v>493</v>
       </c>
-      <c r="C510" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C510" s="4"/>
       <c r="D510" s="7">
         <v>711200</v>
       </c>
@@ -11866,9 +10847,7 @@
       <c r="B511" s="9" t="s">
         <v>510</v>
       </c>
-      <c r="C511" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C511" s="4"/>
       <c r="D511" s="7">
         <v>711000</v>
       </c>
@@ -11883,9 +10862,7 @@
       <c r="B512" s="9" t="s">
         <v>511</v>
       </c>
-      <c r="C512" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C512" s="4"/>
       <c r="D512" s="7">
         <v>711300</v>
       </c>
@@ -11900,9 +10877,7 @@
       <c r="B513" s="9" t="s">
         <v>512</v>
       </c>
-      <c r="C513" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C513" s="4"/>
       <c r="D513" s="7">
         <v>711300</v>
       </c>
@@ -11917,9 +10892,7 @@
       <c r="B514" s="9" t="s">
         <v>513</v>
       </c>
-      <c r="C514" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C514" s="4"/>
       <c r="D514" s="7">
         <v>711300</v>
       </c>
@@ -11934,9 +10907,7 @@
       <c r="B515" s="9" t="s">
         <v>514</v>
       </c>
-      <c r="C515" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C515" s="4"/>
       <c r="D515" s="7">
         <v>711300</v>
       </c>
@@ -11951,9 +10922,7 @@
       <c r="B516" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="C516" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C516" s="4"/>
       <c r="D516" s="7">
         <v>711000</v>
       </c>
@@ -11968,9 +10937,7 @@
       <c r="B517" s="9" t="s">
         <v>515</v>
       </c>
-      <c r="C517" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C517" s="4"/>
       <c r="D517" s="7">
         <v>711400</v>
       </c>
@@ -11985,9 +10952,7 @@
       <c r="B518" s="9" t="s">
         <v>516</v>
       </c>
-      <c r="C518" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C518" s="4"/>
       <c r="D518" s="7">
         <v>710000</v>
       </c>
@@ -12002,9 +10967,7 @@
       <c r="B519" s="9" t="s">
         <v>517</v>
       </c>
-      <c r="C519" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C519" s="4"/>
       <c r="D519" s="7">
         <v>711500</v>
       </c>
@@ -12019,9 +10982,7 @@
       <c r="B520" s="9" t="s">
         <v>518</v>
       </c>
-      <c r="C520" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C520" s="4"/>
       <c r="D520" s="7">
         <v>711500</v>
       </c>
@@ -12036,9 +10997,7 @@
       <c r="B521" s="9" t="s">
         <v>519</v>
       </c>
-      <c r="C521" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C521" s="4"/>
       <c r="D521" s="7">
         <v>711500</v>
       </c>
@@ -12053,9 +11012,7 @@
       <c r="B522" s="9" t="s">
         <v>520</v>
       </c>
-      <c r="C522" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C522" s="4"/>
       <c r="D522" s="7">
         <v>711500</v>
       </c>
@@ -12070,9 +11027,7 @@
       <c r="B523" s="9" t="s">
         <v>521</v>
       </c>
-      <c r="C523" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C523" s="4"/>
       <c r="D523" s="7">
         <v>711500</v>
       </c>
@@ -12087,9 +11042,7 @@
       <c r="B524" s="9" t="s">
         <v>460</v>
       </c>
-      <c r="C524" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C524" s="4"/>
       <c r="D524" s="7">
         <v>710000</v>
       </c>
@@ -12104,9 +11057,7 @@
       <c r="B525" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="C525" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C525" s="4"/>
       <c r="D525" s="7">
         <v>711600</v>
       </c>
@@ -12121,9 +11072,7 @@
       <c r="B526" s="9" t="s">
         <v>522</v>
       </c>
-      <c r="C526" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C526" s="4"/>
       <c r="D526" s="7">
         <v>711000</v>
       </c>
@@ -12138,9 +11087,7 @@
       <c r="B527" s="9" t="s">
         <v>523</v>
       </c>
-      <c r="C527" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C527" s="4"/>
       <c r="D527" s="7">
         <v>711700</v>
       </c>
@@ -12155,9 +11102,7 @@
       <c r="B528" s="9" t="s">
         <v>524</v>
       </c>
-      <c r="C528" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C528" s="4"/>
       <c r="D528" s="7">
         <v>711000</v>
       </c>
@@ -12172,9 +11117,7 @@
       <c r="B529" s="9" t="s">
         <v>525</v>
       </c>
-      <c r="C529" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C529" s="4"/>
       <c r="D529" s="7">
         <v>711800</v>
       </c>
@@ -12189,9 +11132,7 @@
       <c r="B530" s="9" t="s">
         <v>526</v>
       </c>
-      <c r="C530" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C530" s="4"/>
       <c r="D530" s="7">
         <v>711800</v>
       </c>
@@ -12206,9 +11147,7 @@
       <c r="B531" s="9" t="s">
         <v>527</v>
       </c>
-      <c r="C531" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C531" s="4"/>
       <c r="D531" s="7">
         <v>711800</v>
       </c>
@@ -12223,9 +11162,7 @@
       <c r="B532" s="9" t="s">
         <v>528</v>
       </c>
-      <c r="C532" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C532" s="4"/>
       <c r="D532" s="7">
         <v>711800</v>
       </c>
@@ -12240,9 +11177,7 @@
       <c r="B533" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C533" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C533" s="4"/>
       <c r="D533" s="7">
         <v>711800</v>
       </c>
@@ -12257,9 +11192,7 @@
       <c r="B534" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C534" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C534" s="4"/>
       <c r="D534" s="7">
         <v>711800</v>
       </c>
@@ -12274,9 +11207,7 @@
       <c r="B535" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C535" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C535" s="4"/>
       <c r="D535" s="7">
         <v>711800</v>
       </c>
@@ -12291,9 +11222,7 @@
       <c r="B536" s="9" t="s">
         <v>460</v>
       </c>
-      <c r="C536" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C536" s="4"/>
       <c r="D536" s="7">
         <v>711800</v>
       </c>
@@ -12308,9 +11237,7 @@
       <c r="B537" s="9" t="s">
         <v>490</v>
       </c>
-      <c r="C537" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C537" s="4"/>
       <c r="D537" s="7">
         <v>711800</v>
       </c>
@@ -12325,9 +11252,7 @@
       <c r="B538" s="9" t="s">
         <v>529</v>
       </c>
-      <c r="C538" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C538" s="4"/>
       <c r="D538" s="7">
         <v>711800</v>
       </c>
@@ -12342,9 +11267,7 @@
       <c r="B539" s="9" t="s">
         <v>530</v>
       </c>
-      <c r="C539" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C539" s="4"/>
       <c r="D539" s="7">
         <v>711800</v>
       </c>
@@ -12359,9 +11282,7 @@
       <c r="B540" s="9" t="s">
         <v>487</v>
       </c>
-      <c r="C540" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C540" s="4"/>
       <c r="D540" s="7">
         <v>711800</v>
       </c>
@@ -12376,9 +11297,7 @@
       <c r="B541" s="9" t="s">
         <v>531</v>
       </c>
-      <c r="C541" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C541" s="4"/>
       <c r="D541" s="7">
         <v>711800</v>
       </c>
@@ -12393,9 +11312,7 @@
       <c r="B542" s="9" t="s">
         <v>532</v>
       </c>
-      <c r="C542" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C542" s="4"/>
       <c r="D542" s="7">
         <v>711800</v>
       </c>
@@ -12410,9 +11327,7 @@
       <c r="B543" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C543" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C543" s="4"/>
       <c r="D543" s="7">
         <v>711800</v>
       </c>
@@ -12427,9 +11342,7 @@
       <c r="B544" s="9" t="s">
         <v>533</v>
       </c>
-      <c r="C544" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C544" s="4"/>
       <c r="D544" s="7">
         <v>711800</v>
       </c>
@@ -12444,9 +11357,7 @@
       <c r="B545" s="9" t="s">
         <v>534</v>
       </c>
-      <c r="C545" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C545" s="4"/>
       <c r="D545" s="7">
         <v>711800</v>
       </c>
@@ -12461,9 +11372,7 @@
       <c r="B546" s="9" t="s">
         <v>535</v>
       </c>
-      <c r="C546" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C546" s="4"/>
       <c r="D546" s="7">
         <v>711800</v>
       </c>
@@ -12478,9 +11387,7 @@
       <c r="B547" s="9" t="s">
         <v>536</v>
       </c>
-      <c r="C547" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C547" s="4"/>
       <c r="D547" s="7">
         <v>711800</v>
       </c>
@@ -12495,9 +11402,7 @@
       <c r="B548" s="9" t="s">
         <v>537</v>
       </c>
-      <c r="C548" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C548" s="4"/>
       <c r="D548" s="7">
         <v>711800</v>
       </c>
@@ -12512,9 +11417,7 @@
       <c r="B549" s="9" t="s">
         <v>538</v>
       </c>
-      <c r="C549" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C549" s="4"/>
       <c r="D549" s="7">
         <v>711800</v>
       </c>
@@ -12529,9 +11432,7 @@
       <c r="B550" s="9" t="s">
         <v>539</v>
       </c>
-      <c r="C550" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C550" s="4"/>
       <c r="D550" s="7">
         <v>711800</v>
       </c>
@@ -12546,9 +11447,7 @@
       <c r="B551" s="9" t="s">
         <v>540</v>
       </c>
-      <c r="C551" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C551" s="4"/>
       <c r="D551" s="7">
         <v>711800</v>
       </c>
@@ -12563,9 +11462,7 @@
       <c r="B552" s="9" t="s">
         <v>541</v>
       </c>
-      <c r="C552" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C552" s="4"/>
       <c r="D552" s="7">
         <v>711800</v>
       </c>
@@ -12580,9 +11477,7 @@
       <c r="B553" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C553" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C553" s="4"/>
       <c r="D553" s="7">
         <v>700000</v>
       </c>
@@ -12597,9 +11492,7 @@
       <c r="B554" s="9" t="s">
         <v>442</v>
       </c>
-      <c r="C554" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C554" s="4"/>
       <c r="D554" s="7">
         <v>720000</v>
       </c>
@@ -12614,9 +11507,7 @@
       <c r="B555" s="9" t="s">
         <v>442</v>
       </c>
-      <c r="C555" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C555" s="4"/>
       <c r="D555" s="7">
         <v>721000</v>
       </c>
@@ -12631,9 +11522,7 @@
       <c r="B556" s="9" t="s">
         <v>542</v>
       </c>
-      <c r="C556" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C556" s="4"/>
       <c r="D556" s="7">
         <v>721100</v>
       </c>
@@ -12648,9 +11537,7 @@
       <c r="B557" s="9" t="s">
         <v>543</v>
       </c>
-      <c r="C557" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C557" s="4"/>
       <c r="D557" s="7">
         <v>721100</v>
       </c>
@@ -12665,9 +11552,7 @@
       <c r="B558" s="9" t="s">
         <v>544</v>
       </c>
-      <c r="C558" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C558" s="4"/>
       <c r="D558" s="7">
         <v>721100</v>
       </c>
@@ -12682,9 +11567,7 @@
       <c r="B559" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="C559" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C559" s="4"/>
       <c r="D559" s="7">
         <v>721100</v>
       </c>
@@ -12699,9 +11582,7 @@
       <c r="B560" s="9" t="s">
         <v>546</v>
       </c>
-      <c r="C560" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C560" s="4"/>
       <c r="D560" s="7">
         <v>721100</v>
       </c>
@@ -12716,9 +11597,7 @@
       <c r="B561" s="9" t="s">
         <v>547</v>
       </c>
-      <c r="C561" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C561" s="4"/>
       <c r="D561" s="7">
         <v>721100</v>
       </c>
@@ -12733,9 +11612,7 @@
       <c r="B562" s="9" t="s">
         <v>548</v>
       </c>
-      <c r="C562" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C562" s="4"/>
       <c r="D562" s="7">
         <v>721100</v>
       </c>
@@ -12750,9 +11627,7 @@
       <c r="B563" s="9" t="s">
         <v>549</v>
       </c>
-      <c r="C563" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C563" s="4"/>
       <c r="D563" s="7">
         <v>721100</v>
       </c>
@@ -12767,9 +11642,7 @@
       <c r="B564" s="9" t="s">
         <v>550</v>
       </c>
-      <c r="C564" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C564" s="4"/>
       <c r="D564" s="7">
         <v>721100</v>
       </c>
@@ -12784,9 +11657,7 @@
       <c r="B565" s="9" t="s">
         <v>551</v>
       </c>
-      <c r="C565" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C565" s="4"/>
       <c r="D565" s="7">
         <v>721100</v>
       </c>
@@ -12801,9 +11672,7 @@
       <c r="B566" s="9" t="s">
         <v>552</v>
       </c>
-      <c r="C566" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C566" s="4"/>
       <c r="D566" s="7">
         <v>721100</v>
       </c>
@@ -12818,9 +11687,7 @@
       <c r="B567" s="9" t="s">
         <v>553</v>
       </c>
-      <c r="C567" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C567" s="4"/>
       <c r="D567" s="7">
         <v>721100</v>
       </c>
@@ -12835,9 +11702,7 @@
       <c r="B568" s="9" t="s">
         <v>554</v>
       </c>
-      <c r="C568" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C568" s="4"/>
       <c r="D568" s="7">
         <v>721100</v>
       </c>
@@ -12852,9 +11717,7 @@
       <c r="B569" s="9" t="s">
         <v>555</v>
       </c>
-      <c r="C569" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C569" s="4"/>
       <c r="D569" s="7">
         <v>721100</v>
       </c>
@@ -12869,9 +11732,7 @@
       <c r="B570" s="9" t="s">
         <v>556</v>
       </c>
-      <c r="C570" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C570" s="4"/>
       <c r="D570" s="7">
         <v>721100</v>
       </c>
@@ -12886,9 +11747,7 @@
       <c r="B571" s="9" t="s">
         <v>557</v>
       </c>
-      <c r="C571" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C571" s="4"/>
       <c r="D571" s="7">
         <v>721100</v>
       </c>
@@ -12903,9 +11762,7 @@
       <c r="B572" s="9" t="s">
         <v>558</v>
       </c>
-      <c r="C572" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C572" s="4"/>
       <c r="D572" s="7">
         <v>721100</v>
       </c>
@@ -12920,9 +11777,7 @@
       <c r="B573" s="9" t="s">
         <v>559</v>
       </c>
-      <c r="C573" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C573" s="4"/>
       <c r="D573" s="7">
         <v>721100</v>
       </c>
@@ -12937,9 +11792,7 @@
       <c r="B574" s="9" t="s">
         <v>488</v>
       </c>
-      <c r="C574" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C574" s="4"/>
       <c r="D574" s="7">
         <v>721100</v>
       </c>
@@ -12954,9 +11807,7 @@
       <c r="B575" s="9" t="s">
         <v>560</v>
       </c>
-      <c r="C575" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C575" s="4"/>
       <c r="D575" s="7">
         <v>721100</v>
       </c>
@@ -12971,9 +11822,7 @@
       <c r="B576" s="9" t="s">
         <v>561</v>
       </c>
-      <c r="C576" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C576" s="4"/>
       <c r="D576" s="7">
         <v>721100</v>
       </c>
@@ -12988,9 +11837,7 @@
       <c r="B577" s="9" t="s">
         <v>562</v>
       </c>
-      <c r="C577" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C577" s="4"/>
       <c r="D577" s="7">
         <v>721100</v>
       </c>
@@ -13005,9 +11852,7 @@
       <c r="B578" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C578" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C578" s="4"/>
       <c r="D578" s="7">
         <v>721100</v>
       </c>
@@ -13022,9 +11867,7 @@
       <c r="B579" s="9" t="s">
         <v>563</v>
       </c>
-      <c r="C579" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C579" s="4"/>
       <c r="D579" s="7">
         <v>721100</v>
       </c>
@@ -13039,9 +11882,7 @@
       <c r="B580" s="9" t="s">
         <v>564</v>
       </c>
-      <c r="C580" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C580" s="4"/>
       <c r="D580" s="7">
         <v>721100</v>
       </c>
@@ -13056,9 +11897,7 @@
       <c r="B581" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="C581" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C581" s="4"/>
       <c r="D581" s="7">
         <v>721100</v>
       </c>
@@ -13073,9 +11912,7 @@
       <c r="B582" s="9" t="s">
         <v>492</v>
       </c>
-      <c r="C582" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C582" s="4"/>
       <c r="D582" s="7">
         <v>721100</v>
       </c>
@@ -13090,9 +11927,7 @@
       <c r="B583" s="9" t="s">
         <v>493</v>
       </c>
-      <c r="C583" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C583" s="4"/>
       <c r="D583" s="7">
         <v>721100</v>
       </c>
@@ -13107,9 +11942,7 @@
       <c r="B584" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="C584" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C584" s="4"/>
       <c r="D584" s="7">
         <v>720000</v>
       </c>
@@ -13124,9 +11957,7 @@
       <c r="B585" s="9" t="s">
         <v>457</v>
       </c>
-      <c r="C585" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C585" s="4"/>
       <c r="D585" s="7">
         <v>721200</v>
       </c>
@@ -13141,9 +11972,7 @@
       <c r="B586" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C586" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C586" s="4"/>
       <c r="D586" s="7">
         <v>721200</v>
       </c>
@@ -13158,9 +11987,7 @@
       <c r="B587" s="9" t="s">
         <v>565</v>
       </c>
-      <c r="C587" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C587" s="4"/>
       <c r="D587" s="7">
         <v>721200</v>
       </c>
@@ -13175,9 +12002,7 @@
       <c r="B588" s="9" t="s">
         <v>566</v>
       </c>
-      <c r="C588" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C588" s="4"/>
       <c r="D588" s="7">
         <v>721200</v>
       </c>
@@ -13192,9 +12017,7 @@
       <c r="B589" s="9" t="s">
         <v>539</v>
       </c>
-      <c r="C589" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C589" s="4"/>
       <c r="D589" s="7">
         <v>721200</v>
       </c>
@@ -13209,9 +12032,7 @@
       <c r="B590" s="9" t="s">
         <v>460</v>
       </c>
-      <c r="C590" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C590" s="4"/>
       <c r="D590" s="7">
         <v>720000</v>
       </c>
@@ -13226,9 +12047,7 @@
       <c r="B591" s="9" t="s">
         <v>567</v>
       </c>
-      <c r="C591" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C591" s="4"/>
       <c r="D591" s="7">
         <v>721300</v>
       </c>
@@ -13243,9 +12062,7 @@
       <c r="B592" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="C592" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C592" s="4"/>
       <c r="D592" s="7">
         <v>721300</v>
       </c>
@@ -13260,9 +12077,7 @@
       <c r="B593" s="9" t="s">
         <v>568</v>
       </c>
-      <c r="C593" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C593" s="4"/>
       <c r="D593" s="7">
         <v>721300</v>
       </c>
@@ -13277,9 +12092,7 @@
       <c r="B594" s="9" t="s">
         <v>464</v>
       </c>
-      <c r="C594" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C594" s="4"/>
       <c r="D594" s="7">
         <v>721300</v>
       </c>
@@ -13294,9 +12107,7 @@
       <c r="B595" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C595" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C595" s="4"/>
       <c r="D595" s="7">
         <v>720000</v>
       </c>
@@ -13311,9 +12122,7 @@
       <c r="B596" s="9" t="s">
         <v>569</v>
       </c>
-      <c r="C596" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C596" s="4"/>
       <c r="D596" s="7">
         <v>721400</v>
       </c>
@@ -13328,9 +12137,7 @@
       <c r="B597" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C597" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C597" s="4"/>
       <c r="D597" s="7">
         <v>721400</v>
       </c>
@@ -13345,9 +12152,7 @@
       <c r="B598" s="9" t="s">
         <v>570</v>
       </c>
-      <c r="C598" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C598" s="4"/>
       <c r="D598" s="7">
         <v>721400</v>
       </c>
@@ -13362,9 +12167,7 @@
       <c r="B599" s="9" t="s">
         <v>571</v>
       </c>
-      <c r="C599" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C599" s="4"/>
       <c r="D599" s="7">
         <v>721400</v>
       </c>
@@ -13379,9 +12182,7 @@
       <c r="B600" s="9" t="s">
         <v>572</v>
       </c>
-      <c r="C600" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C600" s="4"/>
       <c r="D600" s="7">
         <v>721400</v>
       </c>
@@ -13396,9 +12197,7 @@
       <c r="B601" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="C601" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C601" s="4"/>
       <c r="D601" s="7">
         <v>720000</v>
       </c>
@@ -13413,9 +12212,7 @@
       <c r="B602" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="C602" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C602" s="4"/>
       <c r="D602" s="7">
         <v>721500</v>
       </c>
@@ -13430,9 +12227,7 @@
       <c r="B603" s="9" t="s">
         <v>573</v>
       </c>
-      <c r="C603" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C603" s="4"/>
       <c r="D603" s="7">
         <v>721500</v>
       </c>
@@ -13447,9 +12242,7 @@
       <c r="B604" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C604" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C604" s="4"/>
       <c r="D604" s="7">
         <v>721500</v>
       </c>
@@ -13464,9 +12257,7 @@
       <c r="B605" s="9" t="s">
         <v>574</v>
       </c>
-      <c r="C605" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C605" s="4"/>
       <c r="D605" s="7">
         <v>721500</v>
       </c>
@@ -13481,9 +12272,7 @@
       <c r="B606" s="9" t="s">
         <v>575</v>
       </c>
-      <c r="C606" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C606" s="4"/>
       <c r="D606" s="7">
         <v>720000</v>
       </c>
@@ -13498,9 +12287,7 @@
       <c r="B607" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C607" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C607" s="4"/>
       <c r="D607" s="7">
         <v>721600</v>
       </c>
@@ -13515,9 +12302,7 @@
       <c r="B608" s="9" t="s">
         <v>576</v>
       </c>
-      <c r="C608" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C608" s="4"/>
       <c r="D608" s="7">
         <v>721600</v>
       </c>
@@ -13532,9 +12317,7 @@
       <c r="B609" s="9" t="s">
         <v>577</v>
       </c>
-      <c r="C609" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C609" s="4"/>
       <c r="D609" s="7">
         <v>721600</v>
       </c>
@@ -13549,9 +12332,7 @@
       <c r="B610" s="9" t="s">
         <v>578</v>
       </c>
-      <c r="C610" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C610" s="4"/>
       <c r="D610" s="7">
         <v>721600</v>
       </c>
@@ -13566,9 +12347,7 @@
       <c r="B611" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C611" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C611" s="4"/>
       <c r="D611" s="7">
         <v>721600</v>
       </c>
@@ -13583,9 +12362,7 @@
       <c r="B612" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C612" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C612" s="4"/>
       <c r="D612" s="7">
         <v>721600</v>
       </c>
@@ -13600,9 +12377,7 @@
       <c r="B613" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C613" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C613" s="4"/>
       <c r="D613" s="7">
         <v>721600</v>
       </c>
@@ -13617,9 +12392,7 @@
       <c r="B614" s="9" t="s">
         <v>579</v>
       </c>
-      <c r="C614" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C614" s="4"/>
       <c r="D614" s="7">
         <v>721600</v>
       </c>
@@ -13634,9 +12407,7 @@
       <c r="B615" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C615" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C615" s="4"/>
       <c r="D615" s="7">
         <v>721700</v>
       </c>
@@ -13651,9 +12422,7 @@
       <c r="B616" s="9" t="s">
         <v>580</v>
       </c>
-      <c r="C616" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C616" s="4"/>
       <c r="D616" s="7">
         <v>720000</v>
       </c>
@@ -13668,9 +12437,7 @@
       <c r="B617" s="9" t="s">
         <v>581</v>
       </c>
-      <c r="C617" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C617" s="4"/>
       <c r="D617" s="7">
         <v>721700</v>
       </c>
@@ -13685,9 +12452,7 @@
       <c r="B618" s="9" t="s">
         <v>582</v>
       </c>
-      <c r="C618" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C618" s="4"/>
       <c r="D618" s="7">
         <v>721700</v>
       </c>
@@ -13702,9 +12467,7 @@
       <c r="B619" s="9" t="s">
         <v>583</v>
       </c>
-      <c r="C619" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C619" s="4"/>
       <c r="D619" s="7">
         <v>721700</v>
       </c>
@@ -13719,9 +12482,7 @@
       <c r="B620" s="9" t="s">
         <v>584</v>
       </c>
-      <c r="C620" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C620" s="4"/>
       <c r="D620" s="7">
         <v>721700</v>
       </c>
@@ -13736,9 +12497,7 @@
       <c r="B621" s="9" t="s">
         <v>585</v>
       </c>
-      <c r="C621" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C621" s="4"/>
       <c r="D621" s="7">
         <v>721700</v>
       </c>
@@ -13753,9 +12512,7 @@
       <c r="B622" s="9" t="s">
         <v>586</v>
       </c>
-      <c r="C622" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C622" s="4"/>
       <c r="D622" s="7">
         <v>721700</v>
       </c>
@@ -13770,9 +12527,7 @@
       <c r="B623" s="9" t="s">
         <v>587</v>
       </c>
-      <c r="C623" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C623" s="4"/>
       <c r="D623" s="7">
         <v>721700</v>
       </c>
@@ -13787,9 +12542,7 @@
       <c r="B624" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C624" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C624" s="4"/>
       <c r="D624" s="7">
         <v>721700</v>
       </c>
@@ -13804,9 +12557,7 @@
       <c r="B625" s="9" t="s">
         <v>588</v>
       </c>
-      <c r="C625" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C625" s="4"/>
       <c r="D625" s="7">
         <v>721700</v>
       </c>
@@ -13821,9 +12572,7 @@
       <c r="B626" s="9" t="s">
         <v>589</v>
       </c>
-      <c r="C626" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C626" s="4"/>
       <c r="D626" s="7">
         <v>721700</v>
       </c>
@@ -13838,9 +12587,7 @@
       <c r="B627" s="9" t="s">
         <v>487</v>
       </c>
-      <c r="C627" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C627" s="4"/>
       <c r="D627" s="7">
         <v>721700</v>
       </c>
@@ -13855,9 +12602,7 @@
       <c r="B628" s="9" t="s">
         <v>590</v>
       </c>
-      <c r="C628" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C628" s="4"/>
       <c r="D628" s="7">
         <v>721700</v>
       </c>
@@ -13872,9 +12617,7 @@
       <c r="B629" s="9" t="s">
         <v>490</v>
       </c>
-      <c r="C629" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C629" s="4"/>
       <c r="D629" s="7">
         <v>721700</v>
       </c>
@@ -13889,9 +12632,7 @@
       <c r="B630" s="9" t="s">
         <v>591</v>
       </c>
-      <c r="C630" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C630" s="4"/>
       <c r="D630" s="7">
         <v>721700</v>
       </c>
@@ -13906,9 +12647,7 @@
       <c r="B631" s="9" t="s">
         <v>592</v>
       </c>
-      <c r="C631" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C631" s="4"/>
       <c r="D631" s="7">
         <v>721700</v>
       </c>
@@ -13923,9 +12662,7 @@
       <c r="B632" s="9" t="s">
         <v>593</v>
       </c>
-      <c r="C632" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C632" s="4"/>
       <c r="D632" s="7">
         <v>721700</v>
       </c>
@@ -13940,9 +12677,7 @@
       <c r="B633" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="C633" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C633" s="4"/>
       <c r="D633" s="7">
         <v>721700</v>
       </c>
@@ -13957,9 +12692,7 @@
       <c r="B634" s="9" t="s">
         <v>594</v>
       </c>
-      <c r="C634" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C634" s="4"/>
       <c r="D634" s="7">
         <v>721700</v>
       </c>
@@ -13974,9 +12707,7 @@
       <c r="B635" s="9" t="s">
         <v>595</v>
       </c>
-      <c r="C635" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C635" s="4"/>
       <c r="D635" s="7">
         <v>510000</v>
       </c>
@@ -13991,9 +12722,7 @@
       <c r="B636" s="9" t="s">
         <v>596</v>
       </c>
-      <c r="C636" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C636" s="4"/>
       <c r="D636" s="7">
         <v>730000</v>
       </c>
@@ -14008,9 +12737,7 @@
       <c r="B637" s="9" t="s">
         <v>597</v>
       </c>
-      <c r="C637" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C637" s="4"/>
       <c r="D637" s="7">
         <v>731000</v>
       </c>
@@ -14025,9 +12752,7 @@
       <c r="B638" s="9" t="s">
         <v>598</v>
       </c>
-      <c r="C638" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C638" s="4"/>
       <c r="D638" s="7">
         <v>731000</v>
       </c>
@@ -14042,9 +12767,7 @@
       <c r="B639" s="9" t="s">
         <v>599</v>
       </c>
-      <c r="C639" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C639" s="4"/>
       <c r="D639" s="7">
         <v>731000</v>
       </c>
@@ -14059,9 +12782,7 @@
       <c r="B640" s="9" t="s">
         <v>600</v>
       </c>
-      <c r="C640" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C640" s="4"/>
       <c r="D640" s="7">
         <v>731000</v>
       </c>
@@ -14076,9 +12797,7 @@
       <c r="B641" s="9" t="s">
         <v>601</v>
       </c>
-      <c r="C641" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C641" s="4"/>
       <c r="D641" s="7">
         <v>731000</v>
       </c>
@@ -14093,9 +12812,7 @@
       <c r="B642" s="9" t="s">
         <v>602</v>
       </c>
-      <c r="C642" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C642" s="4"/>
       <c r="D642" s="7">
         <v>731000</v>
       </c>
@@ -14110,9 +12827,7 @@
       <c r="B643" s="9" t="s">
         <v>603</v>
       </c>
-      <c r="C643" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C643" s="4"/>
       <c r="D643" s="7">
         <v>730000</v>
       </c>
@@ -14127,9 +12842,7 @@
       <c r="B644" s="9" t="s">
         <v>604</v>
       </c>
-      <c r="C644" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C644" s="4"/>
       <c r="D644" s="7">
         <v>732000</v>
       </c>
@@ -14144,9 +12857,7 @@
       <c r="B645" s="9" t="s">
         <v>512</v>
       </c>
-      <c r="C645" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C645" s="4"/>
       <c r="D645" s="7">
         <v>732000</v>
       </c>
@@ -14161,9 +12872,7 @@
       <c r="B646" s="9" t="s">
         <v>513</v>
       </c>
-      <c r="C646" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C646" s="4"/>
       <c r="D646" s="7">
         <v>732000</v>
       </c>
@@ -14178,9 +12887,7 @@
       <c r="B647" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C647" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C647" s="4"/>
       <c r="D647" s="7">
         <v>732000</v>
       </c>
@@ -14195,9 +12902,7 @@
       <c r="B648" s="9" t="s">
         <v>605</v>
       </c>
-      <c r="C648" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C648" s="4"/>
       <c r="D648" s="7">
         <v>732000</v>
       </c>
@@ -14212,9 +12917,7 @@
       <c r="B649" s="9" t="s">
         <v>606</v>
       </c>
-      <c r="C649" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C649" s="4"/>
       <c r="D649" s="7">
         <v>732000</v>
       </c>
@@ -14229,9 +12932,7 @@
       <c r="B650" s="9" t="s">
         <v>607</v>
       </c>
-      <c r="C650" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C650" s="4"/>
       <c r="D650" s="7">
         <v>732000</v>
       </c>
@@ -14246,9 +12947,7 @@
       <c r="B651" s="9" t="s">
         <v>608</v>
       </c>
-      <c r="C651" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C651" s="4"/>
       <c r="D651" s="7">
         <v>730000</v>
       </c>
@@ -14263,9 +12962,7 @@
       <c r="B652" s="9" t="s">
         <v>609</v>
       </c>
-      <c r="C652" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C652" s="4"/>
       <c r="D652" s="7">
         <v>733000</v>
       </c>
@@ -14280,9 +12977,7 @@
       <c r="B653" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C653" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C653" s="4"/>
       <c r="D653" s="7">
         <v>733000</v>
       </c>
@@ -14297,9 +12992,7 @@
       <c r="B654" s="9" t="s">
         <v>534</v>
       </c>
-      <c r="C654" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C654" s="4"/>
       <c r="D654" s="7">
         <v>733000</v>
       </c>
@@ -14314,9 +13007,7 @@
       <c r="B655" s="9" t="s">
         <v>610</v>
       </c>
-      <c r="C655" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C655" s="4"/>
       <c r="D655" s="7">
         <v>733000</v>
       </c>
@@ -14331,9 +13022,7 @@
       <c r="B656" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C656" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C656" s="4"/>
       <c r="D656" s="7">
         <v>733000</v>
       </c>
@@ -14348,9 +13037,7 @@
       <c r="B657" s="9" t="s">
         <v>611</v>
       </c>
-      <c r="C657" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C657" s="4"/>
       <c r="D657" s="7">
         <v>733000</v>
       </c>
@@ -14365,9 +13052,7 @@
       <c r="B658" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C658" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C658" s="4"/>
       <c r="D658" s="7">
         <v>733000</v>
       </c>
@@ -14382,9 +13067,7 @@
       <c r="B659" s="9" t="s">
         <v>612</v>
       </c>
-      <c r="C659" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C659" s="4"/>
       <c r="D659" s="7">
         <v>733000</v>
       </c>
@@ -14399,9 +13082,7 @@
       <c r="B660" s="9" t="s">
         <v>523</v>
       </c>
-      <c r="C660" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C660" s="4"/>
       <c r="D660" s="7">
         <v>733000</v>
       </c>
@@ -14416,9 +13097,7 @@
       <c r="B661" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="C661" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C661" s="4"/>
       <c r="D661" s="7">
         <v>733000</v>
       </c>
@@ -14433,9 +13112,7 @@
       <c r="B662" s="9" t="s">
         <v>613</v>
       </c>
-      <c r="C662" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C662" s="4"/>
       <c r="D662" s="7">
         <v>733000</v>
       </c>
@@ -14450,9 +13127,7 @@
       <c r="B663" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C663" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C663" s="4"/>
       <c r="D663" s="7">
         <v>733000</v>
       </c>
@@ -14467,9 +13142,7 @@
       <c r="B664" s="9" t="s">
         <v>614</v>
       </c>
-      <c r="C664" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C664" s="4"/>
       <c r="D664" s="7">
         <v>733000</v>
       </c>
@@ -14484,9 +13157,7 @@
       <c r="B665" s="9" t="s">
         <v>615</v>
       </c>
-      <c r="C665" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C665" s="4"/>
       <c r="D665" s="7">
         <v>733000</v>
       </c>
@@ -14501,9 +13172,7 @@
       <c r="B666" s="9" t="s">
         <v>616</v>
       </c>
-      <c r="C666" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C666" s="4"/>
       <c r="D666" s="7">
         <v>733000</v>
       </c>
@@ -14518,9 +13187,7 @@
       <c r="B667" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C667" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C667" s="4"/>
       <c r="D667" s="7">
         <v>733000</v>
       </c>
@@ -14535,9 +13202,7 @@
       <c r="B668" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C668" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C668" s="4"/>
       <c r="D668" s="7">
         <v>733000</v>
       </c>
@@ -14552,9 +13217,7 @@
       <c r="B669" s="9" t="s">
         <v>457</v>
       </c>
-      <c r="C669" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C669" s="4"/>
       <c r="D669" s="7">
         <v>733000</v>
       </c>
@@ -14569,9 +13232,7 @@
       <c r="B670" s="9" t="s">
         <v>617</v>
       </c>
-      <c r="C670" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C670" s="4"/>
       <c r="D670" s="7">
         <v>733000</v>
       </c>
@@ -14586,9 +13247,7 @@
       <c r="B671" s="9" t="s">
         <v>618</v>
       </c>
-      <c r="C671" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C671" s="4"/>
       <c r="D671" s="7">
         <v>733000</v>
       </c>
@@ -14603,9 +13262,7 @@
       <c r="B672" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C672" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C672" s="4"/>
       <c r="D672" s="7">
         <v>733000</v>
       </c>
@@ -14620,9 +13277,7 @@
       <c r="B673" s="9" t="s">
         <v>619</v>
       </c>
-      <c r="C673" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C673" s="4"/>
       <c r="D673" s="7">
         <v>733000</v>
       </c>
@@ -14637,9 +13292,7 @@
       <c r="B674" s="9" t="s">
         <v>620</v>
       </c>
-      <c r="C674" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C674" s="4"/>
       <c r="D674" s="7">
         <v>733000</v>
       </c>
@@ -14654,9 +13307,7 @@
       <c r="B675" s="9" t="s">
         <v>621</v>
       </c>
-      <c r="C675" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C675" s="4"/>
       <c r="D675" s="7">
         <v>733000</v>
       </c>
@@ -14671,9 +13322,7 @@
       <c r="B676" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C676" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C676" s="4"/>
       <c r="D676" s="7">
         <v>733000</v>
       </c>
@@ -14688,9 +13337,7 @@
       <c r="B677" s="9" t="s">
         <v>622</v>
       </c>
-      <c r="C677" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C677" s="4"/>
       <c r="D677" s="7">
         <v>733000</v>
       </c>
@@ -14705,9 +13352,7 @@
       <c r="B678" s="9" t="s">
         <v>623</v>
       </c>
-      <c r="C678" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C678" s="4"/>
       <c r="D678" s="7">
         <v>733000</v>
       </c>
@@ -14722,9 +13367,7 @@
       <c r="B679" s="9" t="s">
         <v>624</v>
       </c>
-      <c r="C679" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C679" s="4"/>
       <c r="D679" s="7">
         <v>733000</v>
       </c>
@@ -14739,9 +13382,7 @@
       <c r="B680" s="9" t="s">
         <v>625</v>
       </c>
-      <c r="C680" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C680" s="4"/>
       <c r="D680" s="7">
         <v>733000</v>
       </c>
@@ -14756,9 +13397,7 @@
       <c r="B681" s="9" t="s">
         <v>626</v>
       </c>
-      <c r="C681" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C681" s="4"/>
       <c r="D681" s="7">
         <v>733000</v>
       </c>
@@ -14773,9 +13412,7 @@
       <c r="B682" s="9" t="s">
         <v>627</v>
       </c>
-      <c r="C682" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C682" s="4"/>
       <c r="D682" s="7">
         <v>733000</v>
       </c>
@@ -14790,9 +13427,7 @@
       <c r="B683" s="9" t="s">
         <v>628</v>
       </c>
-      <c r="C683" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C683" s="4"/>
       <c r="D683" s="7">
         <v>733000</v>
       </c>
@@ -14807,9 +13442,7 @@
       <c r="B684" s="9" t="s">
         <v>629</v>
       </c>
-      <c r="C684" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C684" s="4"/>
       <c r="D684" s="7">
         <v>733000</v>
       </c>
@@ -14824,9 +13457,7 @@
       <c r="B685" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C685" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C685" s="4"/>
       <c r="D685" s="7">
         <v>733000</v>
       </c>
@@ -14841,9 +13472,7 @@
       <c r="B686" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C686" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C686" s="4"/>
       <c r="D686" s="7">
         <v>800000</v>
       </c>
@@ -14858,9 +13487,7 @@
       <c r="B687" s="9" t="s">
         <v>630</v>
       </c>
-      <c r="C687" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C687" s="4"/>
       <c r="D687" s="7">
         <v>810000</v>
       </c>
@@ -14875,9 +13502,7 @@
       <c r="B688" s="9" t="s">
         <v>631</v>
       </c>
-      <c r="C688" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C688" s="4"/>
       <c r="D688" s="7">
         <v>810000</v>
       </c>
@@ -14892,9 +13517,7 @@
       <c r="B689" s="9" t="s">
         <v>632</v>
       </c>
-      <c r="C689" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C689" s="4"/>
       <c r="D689" s="7">
         <v>810000</v>
       </c>
@@ -14909,9 +13532,7 @@
       <c r="B690" s="9" t="s">
         <v>633</v>
       </c>
-      <c r="C690" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C690" s="4"/>
       <c r="D690" s="7">
         <v>810000</v>
       </c>
@@ -14926,9 +13547,7 @@
       <c r="B691" s="9" t="s">
         <v>634</v>
       </c>
-      <c r="C691" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C691" s="4"/>
       <c r="D691" s="7">
         <v>810000</v>
       </c>
@@ -14943,9 +13562,7 @@
       <c r="B692" s="9" t="s">
         <v>635</v>
       </c>
-      <c r="C692" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C692" s="4"/>
       <c r="D692" s="7">
         <v>810000</v>
       </c>
@@ -14960,9 +13577,7 @@
       <c r="B693" s="9" t="s">
         <v>636</v>
       </c>
-      <c r="C693" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C693" s="4"/>
       <c r="D693" s="7">
         <v>900000</v>
       </c>
@@ -14977,9 +13592,7 @@
       <c r="B694" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C694" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C694" s="4"/>
       <c r="D694" s="7">
         <v>910000</v>
       </c>
@@ -14994,9 +13607,7 @@
       <c r="B695" s="9" t="s">
         <v>637</v>
       </c>
-      <c r="C695" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C695" s="4"/>
       <c r="D695" s="7">
         <v>910000</v>
       </c>
@@ -15011,9 +13622,7 @@
       <c r="B696" s="9" t="s">
         <v>638</v>
       </c>
-      <c r="C696" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C696" s="4"/>
       <c r="D696" s="7">
         <v>910000</v>
       </c>
@@ -15028,9 +13637,7 @@
       <c r="B697" s="9" t="s">
         <v>639</v>
       </c>
-      <c r="C697" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C697" s="4"/>
       <c r="D697" s="7">
         <v>910000</v>
       </c>
@@ -15045,9 +13652,7 @@
       <c r="B698" s="9" t="s">
         <v>640</v>
       </c>
-      <c r="C698" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C698" s="4"/>
       <c r="D698" s="7">
         <v>910000</v>
       </c>
@@ -15062,9 +13667,7 @@
       <c r="B699" s="9" t="s">
         <v>640</v>
       </c>
-      <c r="C699" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C699" s="4"/>
       <c r="D699" s="7">
         <v>910000</v>
       </c>
@@ -15079,9 +13682,7 @@
       <c r="B700" s="9" t="s">
         <v>641</v>
       </c>
-      <c r="C700" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C700" s="4"/>
       <c r="D700" s="7">
         <v>912000</v>
       </c>
@@ -15096,9 +13697,7 @@
       <c r="B701" s="9" t="s">
         <v>642</v>
       </c>
-      <c r="C701" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C701" s="4"/>
       <c r="D701" s="7">
         <v>912000</v>
       </c>
@@ -15113,9 +13712,7 @@
       <c r="B702" s="9" t="s">
         <v>643</v>
       </c>
-      <c r="C702" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C702" s="4"/>
       <c r="D702" s="7">
         <v>912000</v>
       </c>
@@ -15130,9 +13727,7 @@
       <c r="B703" s="9" t="s">
         <v>644</v>
       </c>
-      <c r="C703" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C703" s="4"/>
       <c r="D703" s="7">
         <v>912000</v>
       </c>
@@ -15147,9 +13742,7 @@
       <c r="B704" s="9" t="s">
         <v>645</v>
       </c>
-      <c r="C704" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C704" s="4"/>
       <c r="D704" s="7">
         <v>912000</v>
       </c>
@@ -15164,9 +13757,7 @@
       <c r="B705" s="9" t="s">
         <v>496</v>
       </c>
-      <c r="C705" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C705" s="4"/>
       <c r="D705" s="7">
         <v>920000</v>
       </c>
@@ -15181,9 +13772,7 @@
       <c r="B706" s="9" t="s">
         <v>646</v>
       </c>
-      <c r="C706" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C706" s="4"/>
       <c r="D706" s="7">
         <v>920000</v>
       </c>
@@ -15198,9 +13787,7 @@
       <c r="B707" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C707" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C707" s="4"/>
       <c r="D707" s="7">
         <v>920000</v>
       </c>
@@ -15215,9 +13802,7 @@
       <c r="B708" s="9" t="s">
         <v>647</v>
       </c>
-      <c r="C708" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C708" s="4"/>
       <c r="D708" s="7">
         <v>920000</v>
       </c>
@@ -15232,9 +13817,7 @@
       <c r="B709" s="9" t="s">
         <v>648</v>
       </c>
-      <c r="C709" s="4" t="b">
-        <v>0</v>
-      </c>
+      <c r="C709" s="4"/>
       <c r="D709" s="7">
         <v>920000</v>
       </c>
